--- a/uniaxial-loading-unloading/time_strain_stress/0d01_2d5.xlsx
+++ b/uniaxial-loading-unloading/time_strain_stress/0d01_2d5.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="9" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="3" uniqueCount="3">
   <si>
     <t>Time_s</t>
   </si>
@@ -67,7 +67,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C543"/>
+  <dimension ref="A1:C541"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -91,5964 +91,5942 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="B2" s="0">
-        <v>1</v>
+        <v>1.0004</v>
       </c>
       <c r="C2" s="0">
-        <v>0</v>
+        <v>0.74090909090909074</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.5</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="B3" s="0">
-        <v>1.0049999999999999</v>
+        <v>1.0056</v>
       </c>
       <c r="C3" s="0">
-        <v>1.5037681159420284</v>
+        <v>1.6327141094199922</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>1</v>
+        <v>1.0600000000000001</v>
       </c>
       <c r="B4" s="0">
-        <v>1.01</v>
+        <v>1.0105999999999999</v>
       </c>
       <c r="C4" s="0">
-        <v>2.4450494510320593</v>
+        <v>2.5439893048128348</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>1.5</v>
+        <v>1.5600000000000001</v>
       </c>
       <c r="B5" s="0">
-        <v>1.0149999999999999</v>
+        <v>1.0156000000000001</v>
       </c>
       <c r="C5" s="0">
-        <v>3.2342872200263497</v>
+        <v>3.3247881530234484</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>2</v>
+        <v>2.0600000000000001</v>
       </c>
       <c r="B6" s="0">
-        <v>1.02</v>
+        <v>1.0206</v>
       </c>
       <c r="C6" s="0">
-        <v>3.9624855511638106</v>
+        <v>4.0503825586178532</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>2.5</v>
+        <v>2.5600000000000001</v>
       </c>
       <c r="B7" s="0">
-        <v>1.0249999999999999</v>
+        <v>1.0256000000000001</v>
       </c>
       <c r="C7" s="0">
-        <v>4.6256887132191471</v>
+        <v>4.7018066639243115</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>3</v>
+        <v>3.0600000000000001</v>
       </c>
       <c r="B8" s="0">
-        <v>1.03</v>
+        <v>1.0306</v>
       </c>
       <c r="C8" s="0">
-        <v>5.260550197628457</v>
+        <v>5.3376947758124231</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>3.5</v>
+        <v>3.5600000000000001</v>
       </c>
       <c r="B9" s="0">
-        <v>1.0349999999999999</v>
+        <v>1.0356000000000001</v>
       </c>
       <c r="C9" s="0">
-        <v>5.8605136583223532</v>
+        <v>5.9327429041546695</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>4</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="B10" s="0">
-        <v>1.04</v>
+        <v>1.0406</v>
       </c>
       <c r="C10" s="0">
-        <v>6.4274563021519535</v>
+        <v>6.487537638831756</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>4.5</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="B11" s="0">
-        <v>1.0449999999999999</v>
+        <v>1.0456000000000001</v>
       </c>
       <c r="C11" s="0">
-        <v>6.9678847606499756</v>
+        <v>7.0379465240641714</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>5</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="B12" s="0">
-        <v>1.05</v>
+        <v>1.0506</v>
       </c>
       <c r="C12" s="0">
-        <v>7.5110482213438701</v>
+        <v>7.5739078568490346</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>5.5</v>
+        <v>5.5599999999999996</v>
       </c>
       <c r="B13" s="0">
-        <v>1.0549999999999999</v>
+        <v>1.0556000000000001</v>
       </c>
       <c r="C13" s="0">
-        <v>8.0111834870443541</v>
+        <v>8.0694496092143169</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>6</v>
+        <v>6.0599999999999996</v>
       </c>
       <c r="B14" s="0">
-        <v>1.0600000000000001</v>
+        <v>1.0606</v>
       </c>
       <c r="C14" s="0">
-        <v>8.4937055775142696</v>
+        <v>8.5483784450843281</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>6.5</v>
+        <v>6.5599999999999996</v>
       </c>
       <c r="B15" s="0">
-        <v>1.0649999999999999</v>
+        <v>1.0655999999999999</v>
       </c>
       <c r="C15" s="0">
-        <v>8.9746888010540165</v>
+        <v>9.0364689428218856</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>7</v>
+        <v>7.0599999999999996</v>
       </c>
       <c r="B16" s="0">
-        <v>1.0700000000000001</v>
+        <v>1.0706</v>
       </c>
       <c r="C16" s="0">
-        <v>9.4406143170838792</v>
+        <v>9.4982714932126697</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>7.5</v>
+        <v>7.5599999999999996</v>
       </c>
       <c r="B17" s="0">
-        <v>1.075</v>
+        <v>1.0756000000000001</v>
       </c>
       <c r="C17" s="0">
-        <v>9.8936000000000011</v>
+        <v>9.9473484162895929</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>8</v>
+        <v>8.0600000000000005</v>
       </c>
       <c r="B18" s="0">
-        <v>1.0800000000000001</v>
+        <v>1.0806</v>
       </c>
       <c r="C18" s="0">
-        <v>10.340367149758452</v>
+        <v>10.391242287124642</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>8.5</v>
+        <v>8.5600000000000005</v>
       </c>
       <c r="B19" s="0">
-        <v>1.085</v>
+        <v>1.0855999999999999</v>
       </c>
       <c r="C19" s="0">
-        <v>10.759843126921387</v>
+        <v>10.81162073220897</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>9</v>
+        <v>9.0600000000000005</v>
       </c>
       <c r="B20" s="0">
-        <v>1.0900000000000001</v>
+        <v>1.0906</v>
       </c>
       <c r="C20" s="0">
-        <v>11.177189108476064</v>
+        <v>11.230827642945291</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>9.5</v>
+        <v>9.5600000000000005</v>
       </c>
       <c r="B21" s="0">
-        <v>1.095</v>
+        <v>1.0955999999999999</v>
       </c>
       <c r="C21" s="0">
-        <v>11.581080544576196</v>
+        <v>11.630416289592761</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>10</v>
+        <v>10.06</v>
       </c>
       <c r="B22" s="0">
-        <v>1.1000000000000001</v>
+        <v>1.1006</v>
       </c>
       <c r="C22" s="0">
-        <v>11.977482652613086</v>
+        <v>12.02485067873303</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>10.5</v>
+        <v>10.56</v>
       </c>
       <c r="B23" s="0">
-        <v>1.105</v>
+        <v>1.1055999999999999</v>
       </c>
       <c r="C23" s="0">
-        <v>12.367925340360118</v>
+        <v>12.411316330728095</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>11</v>
+        <v>11.06</v>
       </c>
       <c r="B24" s="0">
-        <v>1.1100000000000001</v>
+        <v>1.1106</v>
       </c>
       <c r="C24" s="0">
-        <v>12.756264031620551</v>
+        <v>12.799798436857264</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>11.5</v>
+        <v>11.56</v>
       </c>
       <c r="B25" s="0">
-        <v>1.115</v>
+        <v>1.1155999999999999</v>
       </c>
       <c r="C25" s="0">
-        <v>13.117510408432146</v>
+        <v>13.160863019333608</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>12</v>
+        <v>12.06</v>
       </c>
       <c r="B26" s="0">
-        <v>1.1200000000000001</v>
+        <v>1.1206</v>
       </c>
       <c r="C26" s="0">
-        <v>13.485478085199821</v>
+        <v>13.523879062114357</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>12.5</v>
+        <v>12.56</v>
       </c>
       <c r="B27" s="0">
-        <v>1.125</v>
+        <v>1.1255999999999999</v>
       </c>
       <c r="C27" s="0">
-        <v>13.837195256916992</v>
+        <v>13.874646647470181</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>13</v>
+        <v>13.06</v>
       </c>
       <c r="B28" s="0">
-        <v>1.1299999999999999</v>
+        <v>1.1306</v>
       </c>
       <c r="C28" s="0">
-        <v>14.193268862538423</v>
+        <v>14.234100370218021</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>13.5</v>
+        <v>13.56</v>
       </c>
       <c r="B29" s="0">
-        <v>1.135</v>
+        <v>1.1355999999999999</v>
       </c>
       <c r="C29" s="0">
-        <v>14.538569345630213</v>
+        <v>14.578969148498565</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>14</v>
+        <v>14.06</v>
       </c>
       <c r="B30" s="0">
-        <v>1.1400000000000001</v>
+        <v>1.1406000000000001</v>
       </c>
       <c r="C30" s="0">
-        <v>14.881567676767675</v>
+        <v>14.918184286301935</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>14.5</v>
+        <v>14.56</v>
       </c>
       <c r="B31" s="0">
-        <v>1.145</v>
+        <v>1.1456</v>
       </c>
       <c r="C31" s="0">
-        <v>15.196609398331134</v>
+        <v>15.240045248868782</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>15</v>
+        <v>15.06</v>
       </c>
       <c r="B32" s="0">
-        <v>1.1499999999999999</v>
+        <v>1.1506000000000001</v>
       </c>
       <c r="C32" s="0">
-        <v>15.521737198067628</v>
+        <v>15.566384204031264</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>15.5</v>
+        <v>15.56</v>
       </c>
       <c r="B33" s="0">
-        <v>1.155</v>
+        <v>1.1556</v>
       </c>
       <c r="C33" s="0">
-        <v>15.845848397013611</v>
+        <v>15.883849444672974</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>16</v>
+        <v>16.059999999999999</v>
       </c>
       <c r="B34" s="0">
-        <v>1.1599999999999999</v>
+        <v>1.1606000000000001</v>
       </c>
       <c r="C34" s="0">
-        <v>16.150493456302147</v>
+        <v>16.184428630193342</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>16.5</v>
+        <v>16.559999999999999</v>
       </c>
       <c r="B35" s="0">
-        <v>1.165</v>
+        <v>1.1656</v>
       </c>
       <c r="C35" s="0">
-        <v>16.457926745718051</v>
+        <v>16.492068284656522</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>17</v>
+        <v>17.059999999999999</v>
       </c>
       <c r="B36" s="0">
-        <v>1.1699999999999999</v>
+        <v>1.1706000000000001</v>
       </c>
       <c r="C36" s="0">
-        <v>16.761199121651291</v>
+        <v>16.794249280131638</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>17.5</v>
+        <v>17.559999999999999</v>
       </c>
       <c r="B37" s="0">
-        <v>1.175</v>
+        <v>1.1756</v>
       </c>
       <c r="C37" s="0">
-        <v>17.059133069828718</v>
+        <v>17.091475935828878</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>18</v>
+        <v>18.059999999999999</v>
       </c>
       <c r="B38" s="0">
-        <v>1.1799999999999999</v>
+        <v>1.1806000000000001</v>
       </c>
       <c r="C38" s="0">
-        <v>17.343716117698719</v>
+        <v>17.374108597285069</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>18.5</v>
+        <v>18.559999999999999</v>
       </c>
       <c r="B39" s="0">
-        <v>1.1850000000000001</v>
+        <v>1.1856</v>
       </c>
       <c r="C39" s="0">
-        <v>17.629305050505046</v>
+        <v>17.658402303578775</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>19</v>
+        <v>19.059999999999999</v>
       </c>
       <c r="B40" s="0">
-        <v>1.1899999999999999</v>
+        <v>1.1905999999999999</v>
       </c>
       <c r="C40" s="0">
-        <v>17.914948967940269</v>
+        <v>17.948712464006586</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>19.5</v>
+        <v>19.559999999999999</v>
       </c>
       <c r="B41" s="0">
-        <v>1.1950000000000001</v>
+        <v>1.1956</v>
       </c>
       <c r="C41" s="0">
-        <v>18.188502766798415</v>
+        <v>18.222714932126696</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>20</v>
+        <v>20.059999999999999</v>
       </c>
       <c r="B42" s="0">
-        <v>1.2</v>
+        <v>1.2006000000000001</v>
       </c>
       <c r="C42" s="0">
-        <v>18.455998945981552</v>
+        <v>18.488897573015219</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>20.5</v>
+        <v>20.559999999999999</v>
       </c>
       <c r="B43" s="0">
-        <v>1.2050000000000001</v>
+        <v>1.2056</v>
       </c>
       <c r="C43" s="0">
-        <v>18.726086078173029</v>
+        <v>18.761048128342249</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>21</v>
+        <v>21.059999999999999</v>
       </c>
       <c r="B44" s="0">
-        <v>1.21</v>
+        <v>1.2105999999999999</v>
       </c>
       <c r="C44" s="0">
-        <v>18.982593588054456</v>
+        <v>19.010627725215965</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>21.5</v>
+        <v>21.559999999999999</v>
       </c>
       <c r="B45" s="0">
-        <v>1.2150000000000001</v>
+        <v>1.2156</v>
       </c>
       <c r="C45" s="0">
-        <v>19.245497408871323</v>
+        <v>19.276000000000003</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>22</v>
+        <v>22.059999999999999</v>
       </c>
       <c r="B46" s="0">
-        <v>1.22</v>
+        <v>1.2205999999999999</v>
       </c>
       <c r="C46" s="0">
-        <v>19.509331049626695</v>
+        <v>19.539184697655291</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>22.5</v>
+        <v>22.559999999999999</v>
       </c>
       <c r="B47" s="0">
-        <v>1.2250000000000001</v>
+        <v>1.2256</v>
       </c>
       <c r="C47" s="0">
-        <v>19.749294334650848</v>
+        <v>19.780325791855205</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>23</v>
+        <v>23.059999999999999</v>
       </c>
       <c r="B48" s="0">
-        <v>1.23</v>
+        <v>1.2305999999999999</v>
       </c>
       <c r="C48" s="0">
-        <v>20.005197364953879</v>
+        <v>20.033818181818184</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>23.5</v>
+        <v>23.559999999999999</v>
       </c>
       <c r="B49" s="0">
-        <v>1.2350000000000001</v>
+        <v>1.2356</v>
       </c>
       <c r="C49" s="0">
-        <v>20.241703645147116</v>
+        <v>20.267356643356646</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>24</v>
+        <v>24.059999999999999</v>
       </c>
       <c r="B50" s="0">
-        <v>1.24</v>
+        <v>1.2405999999999999</v>
       </c>
       <c r="C50" s="0">
-        <v>20.484080105401841</v>
+        <v>20.510382558617852</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>24.5</v>
+        <v>24.559999999999999</v>
       </c>
       <c r="B51" s="0">
-        <v>1.2450000000000001</v>
+        <v>1.2456</v>
       </c>
       <c r="C51" s="0">
-        <v>20.730472902942466</v>
+        <v>20.755428218839988</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>25</v>
+        <v>25.059999999999999</v>
       </c>
       <c r="B52" s="0">
-        <v>1.25</v>
+        <v>1.2505999999999999</v>
       </c>
       <c r="C52" s="0">
-        <v>20.948374176548082</v>
+        <v>20.980176881941588</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>25.5</v>
+        <v>25.559999999999999</v>
       </c>
       <c r="B53" s="0">
-        <v>1.2549999999999999</v>
+        <v>1.2556</v>
       </c>
       <c r="C53" s="0">
-        <v>21.180404918752739</v>
+        <v>21.208138214726453</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>26</v>
+        <v>26.059999999999999</v>
       </c>
       <c r="B54" s="0">
-        <v>1.26</v>
+        <v>1.2605999999999999</v>
       </c>
       <c r="C54" s="0">
-        <v>21.406423012736052</v>
+        <v>21.432380913204444</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0">
-        <v>26.5</v>
+        <v>26.559999999999999</v>
       </c>
       <c r="B55" s="0">
-        <v>1.2650000000000001</v>
+        <v>1.2656000000000001</v>
       </c>
       <c r="C55" s="0">
-        <v>21.631129205094418</v>
+        <v>21.657872480460718</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>27</v>
+        <v>27.059999999999999</v>
       </c>
       <c r="B56" s="0">
-        <v>1.27</v>
+        <v>1.2706</v>
       </c>
       <c r="C56" s="0">
-        <v>21.849438208168646</v>
+        <v>21.875175647881534</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>27.5</v>
+        <v>27.559999999999999</v>
       </c>
       <c r="B57" s="0">
-        <v>1.2749999999999999</v>
+        <v>1.2756000000000001</v>
       </c>
       <c r="C57" s="0">
-        <v>22.07510812472551</v>
+        <v>22.101846153846157</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0">
-        <v>28</v>
+        <v>28.059999999999999</v>
       </c>
       <c r="B58" s="0">
-        <v>1.28</v>
+        <v>1.2806</v>
       </c>
       <c r="C58" s="0">
-        <v>22.285563987703114</v>
+        <v>22.312243521184701</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0">
-        <v>28.5</v>
+        <v>28.559999999999999</v>
       </c>
       <c r="B59" s="0">
-        <v>1.2850000000000001</v>
+        <v>1.2856000000000001</v>
       </c>
       <c r="C59" s="0">
-        <v>22.496460430390862</v>
+        <v>22.519057178116004</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0">
-        <v>29</v>
+        <v>29.059999999999999</v>
       </c>
       <c r="B60" s="0">
-        <v>1.29</v>
+        <v>1.2906</v>
       </c>
       <c r="C60" s="0">
-        <v>22.699303645147126</v>
+        <v>22.721870012340602</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0">
-        <v>29.5</v>
+        <v>29.559999999999999</v>
       </c>
       <c r="B61" s="0">
-        <v>1.2949999999999999</v>
+        <v>1.2955999999999999</v>
       </c>
       <c r="C61" s="0">
-        <v>22.907254457619672</v>
+        <v>22.934836692719049</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0">
-        <v>30</v>
+        <v>30.059999999999999</v>
       </c>
       <c r="B62" s="0">
-        <v>1.3</v>
+        <v>1.3006</v>
       </c>
       <c r="C62" s="0">
-        <v>23.114067281510753</v>
+        <v>23.135913615795975</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0">
-        <v>30.5</v>
+        <v>30.559999999999999</v>
       </c>
       <c r="B63" s="0">
-        <v>1.3049999999999999</v>
+        <v>1.3056000000000001</v>
       </c>
       <c r="C63" s="0">
-        <v>23.306773298199378</v>
+        <v>23.330315919374744</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0">
-        <v>31</v>
+        <v>31.059999999999999</v>
       </c>
       <c r="B64" s="0">
-        <v>1.3100000000000001</v>
+        <v>1.3106</v>
       </c>
       <c r="C64" s="0">
-        <v>23.513800263504603</v>
+        <v>23.540995475113125</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0">
-        <v>31.5</v>
+        <v>31.559999999999999</v>
       </c>
       <c r="B65" s="0">
-        <v>1.3149999999999999</v>
+        <v>1.3155999999999999</v>
       </c>
       <c r="C65" s="0">
-        <v>23.701965568730778</v>
+        <v>23.72715919374744</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0">
-        <v>32</v>
+        <v>32.060000000000002</v>
       </c>
       <c r="B66" s="0">
-        <v>1.3200000000000001</v>
+        <v>1.3206</v>
       </c>
       <c r="C66" s="0">
-        <v>23.890842863416776</v>
+        <v>23.913827231591934</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>32.5</v>
+        <v>32.560000000000002</v>
       </c>
       <c r="B67" s="0">
-        <v>1.325</v>
+        <v>1.3256000000000001</v>
       </c>
       <c r="C67" s="0">
-        <v>24.075207378129111</v>
+        <v>24.098871246400659</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>33</v>
+        <v>33.060000000000002</v>
       </c>
       <c r="B68" s="0">
-        <v>1.3300000000000001</v>
+        <v>1.3306</v>
       </c>
       <c r="C68" s="0">
-        <v>24.261771805006585</v>
+        <v>24.279296585767185</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0">
-        <v>33.5</v>
+        <v>33.560000000000002</v>
       </c>
       <c r="B69" s="0">
-        <v>1.335</v>
+        <v>1.3355999999999999</v>
       </c>
       <c r="C69" s="0">
-        <v>24.444518928414574</v>
+        <v>24.46801316330728</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0">
-        <v>34</v>
+        <v>34.060000000000002</v>
       </c>
       <c r="B70" s="0">
-        <v>1.3400000000000001</v>
+        <v>1.3406</v>
       </c>
       <c r="C70" s="0">
-        <v>24.612157751427308</v>
+        <v>24.627971205265332</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0">
-        <v>34.5</v>
+        <v>34.560000000000002</v>
       </c>
       <c r="B71" s="0">
-        <v>1.345</v>
+        <v>1.3456000000000001</v>
       </c>
       <c r="C71" s="0">
-        <v>24.799394993412381</v>
+        <v>24.818406417112303</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0">
-        <v>35</v>
+        <v>35.060000000000002</v>
       </c>
       <c r="B72" s="0">
-        <v>1.3500000000000001</v>
+        <v>1.3506</v>
       </c>
       <c r="C72" s="0">
-        <v>24.96908423364075</v>
+        <v>24.989239819004528</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0">
-        <v>35.5</v>
+        <v>35.560000000000002</v>
       </c>
       <c r="B73" s="0">
-        <v>1.355</v>
+        <v>1.3555999999999999</v>
       </c>
       <c r="C73" s="0">
-        <v>25.136797364953878</v>
+        <v>25.154523241464421</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0">
-        <v>36</v>
+        <v>36.060000000000002</v>
       </c>
       <c r="B74" s="0">
-        <v>1.3599999999999999</v>
+        <v>1.3606</v>
       </c>
       <c r="C74" s="0">
-        <v>25.303998418972327</v>
+        <v>25.323166598107779</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0">
-        <v>36.5</v>
+        <v>36.560000000000002</v>
       </c>
       <c r="B75" s="0">
-        <v>1.365</v>
+        <v>1.3656000000000001</v>
       </c>
       <c r="C75" s="0">
-        <v>25.482963021519538</v>
+        <v>25.507178116001651</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0">
-        <v>37</v>
+        <v>37.060000000000002</v>
       </c>
       <c r="B76" s="0">
-        <v>1.3700000000000001</v>
+        <v>1.3706</v>
       </c>
       <c r="C76" s="0">
-        <v>25.645660606060602</v>
+        <v>25.664617030028801</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0">
-        <v>37.5</v>
+        <v>37.560000000000002</v>
       </c>
       <c r="B77" s="0">
-        <v>1.375</v>
+        <v>1.3755999999999999</v>
       </c>
       <c r="C77" s="0">
-        <v>25.802551075977156</v>
+        <v>25.815385438091322</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0">
-        <v>38</v>
+        <v>38.060000000000002</v>
       </c>
       <c r="B78" s="0">
-        <v>1.3799999999999999</v>
+        <v>1.3806</v>
       </c>
       <c r="C78" s="0">
-        <v>25.968402283706631</v>
+        <v>25.991786918963392</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0">
-        <v>38.5</v>
+        <v>38.560000000000002</v>
       </c>
       <c r="B79" s="0">
-        <v>1.385</v>
+        <v>1.3856000000000002</v>
       </c>
       <c r="C79" s="0">
-        <v>26.13376583223539</v>
+        <v>26.157146853146855</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0">
-        <v>39</v>
+        <v>39.060000000000002</v>
       </c>
       <c r="B80" s="0">
-        <v>1.3900000000000001</v>
+        <v>1.3906000000000001</v>
       </c>
       <c r="C80" s="0">
-        <v>26.297984365393056</v>
+        <v>26.317088440970792</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0">
-        <v>39.5</v>
+        <v>39.560000000000002</v>
       </c>
       <c r="B81" s="0">
-        <v>1.395</v>
+        <v>1.3956</v>
       </c>
       <c r="C81" s="0">
-        <v>26.455767413263057</v>
+        <v>26.469836281365698</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0">
-        <v>40</v>
+        <v>40.060000000000002</v>
       </c>
       <c r="B82" s="0">
-        <v>1.3999999999999999</v>
+        <v>1.4006000000000001</v>
       </c>
       <c r="C82" s="0">
-        <v>26.607001493192797</v>
+        <v>26.624594816947756</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0">
-        <v>40.5</v>
+        <v>40.560000000000002</v>
       </c>
       <c r="B83" s="0">
-        <v>1.405</v>
+        <v>1.4056</v>
       </c>
       <c r="C83" s="0">
-        <v>26.76483285024154</v>
+        <v>26.782991361579601</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0">
-        <v>41</v>
+        <v>41.060000000000002</v>
       </c>
       <c r="B84" s="0">
-        <v>1.4100000000000001</v>
+        <v>1.4106000000000001</v>
       </c>
       <c r="C84" s="0">
-        <v>26.91945226174791</v>
+        <v>26.939703002879479</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0">
-        <v>41.5</v>
+        <v>41.560000000000002</v>
       </c>
       <c r="B85" s="0">
-        <v>1.415</v>
+        <v>1.4156</v>
       </c>
       <c r="C85" s="0">
-        <v>27.068206411945539</v>
+        <v>27.089034142328263</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0">
-        <v>42</v>
+        <v>42.060000000000002</v>
       </c>
       <c r="B86" s="0">
-        <v>1.4199999999999999</v>
+        <v>1.4206000000000001</v>
       </c>
       <c r="C86" s="0">
-        <v>27.177596662274919</v>
+        <v>27.19452982311806</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0">
-        <v>42.5</v>
+        <v>42.560000000000002</v>
       </c>
       <c r="B87" s="0">
-        <v>1.425</v>
+        <v>1.4256</v>
       </c>
       <c r="C87" s="0">
-        <v>27.320733069828719</v>
+        <v>27.341676676264914</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0">
-        <v>43</v>
+        <v>43.060000000000002</v>
       </c>
       <c r="B88" s="0">
-        <v>1.4299999999999999</v>
+        <v>1.4306000000000001</v>
       </c>
       <c r="C88" s="0">
-        <v>27.474843917435212</v>
+        <v>27.489466886055126</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0">
-        <v>43.5</v>
+        <v>43.560000000000002</v>
       </c>
       <c r="B89" s="0">
-        <v>1.4350000000000001</v>
+        <v>1.4356</v>
       </c>
       <c r="C89" s="0">
-        <v>27.619714712340791</v>
+        <v>27.633716166186758</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0">
-        <v>44</v>
+        <v>44.060000000000002</v>
       </c>
       <c r="B90" s="0">
-        <v>1.4399999999999999</v>
+        <v>1.4406000000000001</v>
       </c>
       <c r="C90" s="0">
-        <v>27.764536846728141</v>
+        <v>27.789850267379681</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0">
-        <v>44.5</v>
+        <v>44.560000000000002</v>
       </c>
       <c r="B91" s="0">
-        <v>1.4450000000000001</v>
+        <v>1.4456</v>
       </c>
       <c r="C91" s="0">
-        <v>27.899062977602107</v>
+        <v>27.919833813245585</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="0">
-        <v>45</v>
+        <v>45.060000000000002</v>
       </c>
       <c r="B92" s="0">
-        <v>1.45</v>
+        <v>1.4506000000000001</v>
       </c>
       <c r="C92" s="0">
-        <v>28.039559947299068</v>
+        <v>28.060164541341017</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0">
-        <v>45.5</v>
+        <v>45.560000000000002</v>
       </c>
       <c r="B93" s="0">
-        <v>1.4550000000000001</v>
+        <v>1.4556</v>
       </c>
       <c r="C93" s="0">
-        <v>28.182278260869555</v>
+        <v>28.200850678733037</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="0">
-        <v>46</v>
+        <v>46.060000000000002</v>
       </c>
       <c r="B94" s="0">
-        <v>1.46</v>
+        <v>1.4605999999999999</v>
       </c>
       <c r="C94" s="0">
-        <v>28.330072375933238</v>
+        <v>28.346505964623613</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="0">
-        <v>46.5</v>
+        <v>46.560000000000002</v>
       </c>
       <c r="B95" s="0">
-        <v>1.4650000000000001</v>
+        <v>1.4656</v>
       </c>
       <c r="C95" s="0">
-        <v>28.467328941589798</v>
+        <v>28.484751131221728</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="0">
-        <v>47</v>
+        <v>47.060000000000002</v>
       </c>
       <c r="B96" s="0">
-        <v>1.47</v>
+        <v>1.4706000000000001</v>
       </c>
       <c r="C96" s="0">
-        <v>28.597132015810267</v>
+        <v>28.61658165364048</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0">
-        <v>47.5</v>
+        <v>47.560000000000002</v>
       </c>
       <c r="B97" s="0">
-        <v>1.4750000000000001</v>
+        <v>1.4756</v>
       </c>
       <c r="C97" s="0">
-        <v>28.727354062362753</v>
+        <v>28.738907445495681</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0">
-        <v>48</v>
+        <v>48.060000000000002</v>
       </c>
       <c r="B98" s="0">
-        <v>1.48</v>
+        <v>1.4805999999999999</v>
       </c>
       <c r="C98" s="0">
-        <v>28.862166534914358</v>
+        <v>28.870916495269448</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="0">
-        <v>48.5</v>
+        <v>48.560000000000002</v>
       </c>
       <c r="B99" s="0">
-        <v>1.4849999999999999</v>
+        <v>1.4856</v>
       </c>
       <c r="C99" s="0">
-        <v>28.994539833113741</v>
+        <v>29.009430686960105</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="0">
-        <v>49</v>
+        <v>49.060000000000002</v>
       </c>
       <c r="B100" s="0">
-        <v>1.49</v>
+        <v>1.4906000000000001</v>
       </c>
       <c r="C100" s="0">
-        <v>29.128808783487038</v>
+        <v>29.149493212669686</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="0">
-        <v>49.5</v>
+        <v>49.560000000000002</v>
       </c>
       <c r="B101" s="0">
-        <v>1.4950000000000001</v>
+        <v>1.4956</v>
       </c>
       <c r="C101" s="0">
-        <v>29.250326043039081</v>
+        <v>29.261554915672573</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="0">
-        <v>50</v>
+        <v>50.060000000000002</v>
       </c>
       <c r="B102" s="0">
-        <v>1.5</v>
+        <v>1.5005999999999999</v>
       </c>
       <c r="C102" s="0">
-        <v>29.382665261308738</v>
+        <v>29.396130810366106</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="0">
-        <v>50.5</v>
+        <v>50.560000000000002</v>
       </c>
       <c r="B103" s="0">
-        <v>1.5049999999999999</v>
+        <v>1.5056</v>
       </c>
       <c r="C103" s="0">
-        <v>29.511110408432142</v>
+        <v>29.522077334430275</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="0">
-        <v>51</v>
+        <v>51.060000000000002</v>
       </c>
       <c r="B104" s="0">
-        <v>1.51</v>
+        <v>1.5106000000000002</v>
       </c>
       <c r="C104" s="0">
-        <v>29.62925533596837</v>
+        <v>29.643050596462363</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="0">
-        <v>51.5</v>
+        <v>51.560000000000002</v>
       </c>
       <c r="B105" s="0">
-        <v>1.5150000000000001</v>
+        <v>1.5156000000000001</v>
       </c>
       <c r="C105" s="0">
-        <v>29.765104962670172</v>
+        <v>29.780641711229951</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="0">
-        <v>52</v>
+        <v>52.060000000000002</v>
       </c>
       <c r="B106" s="0">
-        <v>1.52</v>
+        <v>1.5206</v>
       </c>
       <c r="C106" s="0">
-        <v>29.870285287659193</v>
+        <v>29.888016454134103</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="0">
-        <v>52.5</v>
+        <v>52.560000000000002</v>
       </c>
       <c r="B107" s="0">
-        <v>1.5249999999999999</v>
+        <v>1.5256000000000001</v>
       </c>
       <c r="C107" s="0">
-        <v>30.009491963109344</v>
+        <v>30.027649526943648</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="0">
-        <v>53</v>
+        <v>53.060000000000002</v>
       </c>
       <c r="B108" s="0">
-        <v>1.53</v>
+        <v>1.5306000000000002</v>
       </c>
       <c r="C108" s="0">
-        <v>30.131603337725075</v>
+        <v>30.145923488276434</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="0">
-        <v>53.5</v>
+        <v>53.560000000000002</v>
       </c>
       <c r="B109" s="0">
-        <v>1.5350000000000001</v>
+        <v>1.5356000000000001</v>
       </c>
       <c r="C109" s="0">
-        <v>30.250483794466398</v>
+        <v>30.263842040312628</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="0">
-        <v>54</v>
+        <v>54.060000000000002</v>
       </c>
       <c r="B110" s="0">
-        <v>1.54</v>
+        <v>1.5406</v>
       </c>
       <c r="C110" s="0">
-        <v>30.371833992094857</v>
+        <v>30.383232414644187</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="0">
-        <v>54.5</v>
+        <v>54.560000000000002</v>
       </c>
       <c r="B111" s="0">
-        <v>1.5449999999999999</v>
+        <v>1.5456000000000001</v>
       </c>
       <c r="C111" s="0">
-        <v>30.484779973649534</v>
+        <v>30.499061291649532</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="0">
-        <v>55</v>
+        <v>55.060000000000002</v>
       </c>
       <c r="B112" s="0">
-        <v>1.55</v>
+        <v>1.5506000000000002</v>
       </c>
       <c r="C112" s="0">
-        <v>30.600240667545016</v>
+        <v>30.613772110242703</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="0">
-        <v>55.5</v>
+        <v>55.560000000000002</v>
       </c>
       <c r="B113" s="0">
-        <v>1.5550000000000002</v>
+        <v>1.5556000000000001</v>
       </c>
       <c r="C113" s="0">
-        <v>30.717184365393059</v>
+        <v>30.731590292060883</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="0">
-        <v>56</v>
+        <v>56.060000000000002</v>
       </c>
       <c r="B114" s="0">
-        <v>1.5600000000000001</v>
+        <v>1.5606</v>
       </c>
       <c r="C114" s="0">
-        <v>30.826904172156343</v>
+        <v>30.840324969148504</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="0">
-        <v>56.5</v>
+        <v>56.560000000000002</v>
       </c>
       <c r="B115" s="0">
-        <v>1.5649999999999999</v>
+        <v>1.5655999999999999</v>
       </c>
       <c r="C115" s="0">
-        <v>30.948337988581457</v>
+        <v>30.95783134512547</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="0">
-        <v>57</v>
+        <v>57.060000000000002</v>
       </c>
       <c r="B116" s="0">
-        <v>1.5700000000000001</v>
+        <v>1.5706</v>
       </c>
       <c r="C116" s="0">
-        <v>31.057694158981107</v>
+        <v>31.066748663101617</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="0">
-        <v>57.5</v>
+        <v>57.560000000000002</v>
       </c>
       <c r="B117" s="0">
-        <v>1.5750000000000002</v>
+        <v>1.5756000000000001</v>
       </c>
       <c r="C117" s="0">
-        <v>31.164266490996916</v>
+        <v>31.182032908268209</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="0">
-        <v>58</v>
+        <v>58.060000000000002</v>
       </c>
       <c r="B118" s="0">
-        <v>1.5800000000000001</v>
+        <v>1.5806</v>
       </c>
       <c r="C118" s="0">
-        <v>31.273473517786552</v>
+        <v>31.283913615795974</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="0">
-        <v>58.5</v>
+        <v>58.560000000000002</v>
       </c>
       <c r="B119" s="0">
-        <v>1.585</v>
+        <v>1.5855999999999999</v>
       </c>
       <c r="C119" s="0">
-        <v>31.397559244620108</v>
+        <v>31.412324146441794</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="0">
-        <v>59</v>
+        <v>59.060000000000002</v>
       </c>
       <c r="B120" s="0">
-        <v>1.5899999999999999</v>
+        <v>1.5906</v>
       </c>
       <c r="C120" s="0">
-        <v>31.504725691699598</v>
+        <v>31.515234060057601</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="0">
-        <v>59.5</v>
+        <v>59.560000000000002</v>
       </c>
       <c r="B121" s="0">
-        <v>1.595</v>
+        <v>1.5956000000000001</v>
       </c>
       <c r="C121" s="0">
-        <v>31.612765041721559</v>
+        <v>31.62390867955575</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="0">
-        <v>60</v>
+        <v>60.060000000000002</v>
       </c>
       <c r="B122" s="0">
-        <v>1.6000000000000001</v>
+        <v>1.6006</v>
       </c>
       <c r="C122" s="0">
-        <v>31.716137725076859</v>
+        <v>31.728686137392021</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="0">
-        <v>60.5</v>
+        <v>60.560000000000002</v>
       </c>
       <c r="B123" s="0">
-        <v>1.605</v>
+        <v>1.6055999999999999</v>
       </c>
       <c r="C123" s="0">
-        <v>31.825879841897219</v>
+        <v>31.832932126696836</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="0">
-        <v>61</v>
+        <v>61.060000000000002</v>
       </c>
       <c r="B124" s="0">
-        <v>1.6099999999999999</v>
+        <v>1.6106</v>
       </c>
       <c r="C124" s="0">
-        <v>31.929354062362755</v>
+        <v>31.944659810777459</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="0">
-        <v>61.5</v>
+        <v>61.560000000000002</v>
       </c>
       <c r="B125" s="0">
-        <v>1.615</v>
+        <v>1.6156000000000001</v>
       </c>
       <c r="C125" s="0">
-        <v>32.033696969696962</v>
+        <v>32.04795968737146</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="0">
-        <v>62</v>
+        <v>62.060000000000002</v>
       </c>
       <c r="B126" s="0">
-        <v>1.6200000000000001</v>
+        <v>1.6206</v>
       </c>
       <c r="C126" s="0">
-        <v>32.145407114624497</v>
+        <v>32.152651583710409</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="0">
-        <v>62.5</v>
+        <v>62.560000000000002</v>
       </c>
       <c r="B127" s="0">
-        <v>1.625</v>
+        <v>1.6255999999999999</v>
       </c>
       <c r="C127" s="0">
-        <v>32.242542468159854</v>
+        <v>32.25365117235706</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="0">
-        <v>63</v>
+        <v>63.060000000000002</v>
       </c>
       <c r="B128" s="0">
-        <v>1.6299999999999999</v>
+        <v>1.6306</v>
       </c>
       <c r="C128" s="0">
-        <v>32.347644971453654</v>
+        <v>32.360084738790633</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="0">
-        <v>63.5</v>
+        <v>63.560000000000002</v>
       </c>
       <c r="B129" s="0">
-        <v>1.635</v>
+        <v>1.6356000000000002</v>
       </c>
       <c r="C129" s="0">
-        <v>32.444410540184435</v>
+        <v>32.455062114356231</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="0">
-        <v>64</v>
+        <v>64.060000000000002</v>
       </c>
       <c r="B130" s="0">
-        <v>1.6400000000000001</v>
+        <v>1.6406000000000001</v>
       </c>
       <c r="C130" s="0">
-        <v>32.549761089152383</v>
+        <v>32.559756478815302</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="0">
-        <v>64.5</v>
+        <v>64.560000000000002</v>
       </c>
       <c r="B131" s="0">
-        <v>1.645</v>
+        <v>1.6456</v>
       </c>
       <c r="C131" s="0">
-        <v>32.640994993412377</v>
+        <v>32.65738872891815</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="0">
-        <v>65</v>
+        <v>65.060000000000002</v>
       </c>
       <c r="B132" s="0">
-        <v>1.6499999999999999</v>
+        <v>1.6506000000000001</v>
       </c>
       <c r="C132" s="0">
-        <v>32.746438120333764</v>
+        <v>32.756698477992614</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="0">
-        <v>65.5</v>
+        <v>65.560000000000002</v>
       </c>
       <c r="B133" s="0">
-        <v>1.655</v>
+        <v>1.6556000000000002</v>
       </c>
       <c r="C133" s="0">
-        <v>32.844044268774702</v>
+        <v>32.849783628136571</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="0">
-        <v>66</v>
+        <v>66.060000000000002</v>
       </c>
       <c r="B134" s="0">
-        <v>1.6600000000000001</v>
+        <v>1.6606000000000001</v>
       </c>
       <c r="C134" s="0">
-        <v>32.946982345191039</v>
+        <v>32.958060057589471</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="0">
-        <v>66.5</v>
+        <v>66.560000000000002</v>
       </c>
       <c r="B135" s="0">
-        <v>1.665</v>
+        <v>1.6656</v>
       </c>
       <c r="C135" s="0">
-        <v>33.040512955643386</v>
+        <v>33.058078979843692</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="0">
-        <v>67</v>
+        <v>67.060000000000002</v>
       </c>
       <c r="B136" s="0">
-        <v>1.6699999999999999</v>
+        <v>1.6706000000000001</v>
       </c>
       <c r="C136" s="0">
-        <v>33.134245410628019</v>
+        <v>33.150935417523655</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="0">
-        <v>67.5</v>
+        <v>67.560000000000002</v>
       </c>
       <c r="B137" s="0">
-        <v>1.675</v>
+        <v>1.6756000000000002</v>
       </c>
       <c r="C137" s="0">
-        <v>33.228424242424232</v>
+        <v>33.239777046482935</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="0">
-        <v>68</v>
+        <v>68.060000000000002</v>
       </c>
       <c r="B138" s="0">
-        <v>1.6800000000000002</v>
+        <v>1.6806000000000001</v>
       </c>
       <c r="C138" s="0">
-        <v>33.323035046113311</v>
+        <v>33.3324376799671</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="0">
-        <v>68.5</v>
+        <v>68.560000000000002</v>
       </c>
       <c r="B139" s="0">
-        <v>1.6850000000000001</v>
+        <v>1.6856</v>
       </c>
       <c r="C139" s="0">
-        <v>33.420330259112859</v>
+        <v>33.431243109831357</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="0">
-        <v>69</v>
+        <v>69.060000000000002</v>
       </c>
       <c r="B140" s="0">
-        <v>1.6899999999999999</v>
+        <v>1.6905999999999999</v>
       </c>
       <c r="C140" s="0">
-        <v>33.515393763724191</v>
+        <v>33.524120115178938</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="0">
-        <v>69.5</v>
+        <v>69.560000000000002</v>
       </c>
       <c r="B141" s="0">
-        <v>1.6950000000000001</v>
+        <v>1.6956</v>
       </c>
       <c r="C141" s="0">
-        <v>33.596629600351335</v>
+        <v>33.603801727684072</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="0">
-        <v>70</v>
+        <v>70.060000000000002</v>
       </c>
       <c r="B142" s="0">
-        <v>1.7000000000000002</v>
+        <v>1.7006000000000001</v>
       </c>
       <c r="C142" s="0">
-        <v>33.697357400087832</v>
+        <v>33.708821061291651</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="0">
-        <v>70.5</v>
+        <v>70.560000000000002</v>
       </c>
       <c r="B143" s="0">
-        <v>1.7050000000000001</v>
+        <v>1.7056</v>
       </c>
       <c r="C143" s="0">
-        <v>33.784353271848914</v>
+        <v>33.790787330316746</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="0">
-        <v>71</v>
+        <v>71.060000000000002</v>
       </c>
       <c r="B144" s="0">
-        <v>1.71</v>
+        <v>1.7105999999999999</v>
       </c>
       <c r="C144" s="0">
-        <v>33.875745278875705</v>
+        <v>33.888036199095033</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="0">
-        <v>71.5</v>
+        <v>71.560000000000002</v>
       </c>
       <c r="B145" s="0">
-        <v>1.7149999999999999</v>
+        <v>1.7156</v>
       </c>
       <c r="C145" s="0">
-        <v>33.969707158541929</v>
+        <v>33.983133689839583</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="0">
-        <v>72</v>
+        <v>72.060000000000002</v>
       </c>
       <c r="B146" s="0">
-        <v>1.72</v>
+        <v>1.7206000000000001</v>
       </c>
       <c r="C146" s="0">
-        <v>34.061331927975395</v>
+        <v>34.069484162895932</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="0">
-        <v>72.5</v>
+        <v>72.560000000000002</v>
       </c>
       <c r="B147" s="0">
-        <v>1.7250000000000001</v>
+        <v>1.7256</v>
       </c>
       <c r="C147" s="0">
-        <v>34.150718489240219</v>
+        <v>34.157730974907452</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="0">
-        <v>73</v>
+        <v>73.060000000000002</v>
       </c>
       <c r="B148" s="0">
-        <v>1.73</v>
+        <v>1.7305999999999999</v>
       </c>
       <c r="C148" s="0">
-        <v>34.227442599912152</v>
+        <v>34.239426573426577</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="0">
-        <v>73.5</v>
+        <v>73.560000000000002</v>
       </c>
       <c r="B149" s="0">
-        <v>1.7349999999999999</v>
+        <v>1.7356</v>
       </c>
       <c r="C149" s="0">
-        <v>34.319748440931036</v>
+        <v>34.333522830111072</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="0">
-        <v>74</v>
+        <v>74.060000000000002</v>
       </c>
       <c r="B150" s="0">
-        <v>1.74</v>
+        <v>1.7406000000000001</v>
       </c>
       <c r="C150" s="0">
-        <v>34.40336881862099</v>
+        <v>34.413327025915265</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="0">
-        <v>74.5</v>
+        <v>74.560000000000002</v>
       </c>
       <c r="B151" s="0">
-        <v>1.7450000000000001</v>
+        <v>1.7456</v>
       </c>
       <c r="C151" s="0">
-        <v>34.49457250768554</v>
+        <v>34.511886466474706</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="0">
-        <v>75</v>
+        <v>75.060000000000002</v>
       </c>
       <c r="B152" s="0">
-        <v>1.75</v>
+        <v>1.7505999999999999</v>
       </c>
       <c r="C152" s="0">
-        <v>34.582075010979345</v>
+        <v>34.592786507610043</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="0">
-        <v>75.5</v>
+        <v>75.560000000000002</v>
       </c>
       <c r="B153" s="0">
-        <v>1.7549999999999999</v>
+        <v>1.7556</v>
       </c>
       <c r="C153" s="0">
-        <v>34.660419850680711</v>
+        <v>34.677587823940769</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="0">
-        <v>76</v>
+        <v>76.060000000000002</v>
       </c>
       <c r="B154" s="0">
-        <v>1.76</v>
+        <v>1.7606000000000002</v>
       </c>
       <c r="C154" s="0">
-        <v>34.74791901624944</v>
+        <v>34.757428218839991</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="0">
-        <v>76.5</v>
+        <v>76.560000000000002</v>
       </c>
       <c r="B155" s="0">
-        <v>1.7650000000000001</v>
+        <v>1.7656000000000001</v>
       </c>
       <c r="C155" s="0">
-        <v>34.83299376372419</v>
+        <v>34.841953928424523</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="0">
-        <v>77</v>
+        <v>77.060000000000002</v>
       </c>
       <c r="B156" s="0">
-        <v>1.77</v>
+        <v>1.7706</v>
       </c>
       <c r="C156" s="0">
-        <v>34.919292929292915</v>
+        <v>34.925499794323329</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="0">
-        <v>77.5</v>
+        <v>77.560000000000002</v>
       </c>
       <c r="B157" s="0">
-        <v>1.7749999999999999</v>
+        <v>1.7756000000000001</v>
       </c>
       <c r="C157" s="0">
-        <v>34.994338339920944</v>
+        <v>35.00366351295763</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="0">
-        <v>78</v>
+        <v>78.060000000000002</v>
       </c>
       <c r="B158" s="0">
-        <v>1.78</v>
+        <v>1.7806000000000002</v>
       </c>
       <c r="C158" s="0">
-        <v>35.082226262626257</v>
+        <v>35.093225832990541</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="0">
-        <v>78.5</v>
+        <v>78.560000000000002</v>
       </c>
       <c r="B159" s="0">
-        <v>1.7850000000000001</v>
+        <v>1.7856000000000001</v>
       </c>
       <c r="C159" s="0">
-        <v>35.159879666227482</v>
+        <v>35.167013574660636</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="0">
-        <v>79</v>
+        <v>79.060000000000002</v>
       </c>
       <c r="B160" s="0">
-        <v>1.79</v>
+        <v>1.7906</v>
       </c>
       <c r="C160" s="0">
-        <v>35.248075713658316</v>
+        <v>35.253931715343484</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="0">
-        <v>79.5</v>
+        <v>79.560000000000002</v>
       </c>
       <c r="B161" s="0">
-        <v>1.7949999999999999</v>
+        <v>1.7956000000000001</v>
       </c>
       <c r="C161" s="0">
-        <v>35.321976811594197</v>
+        <v>35.328626079802554</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="0">
-        <v>80</v>
+        <v>80.060000000000002</v>
       </c>
       <c r="B162" s="0">
-        <v>1.8</v>
+        <v>1.8006000000000002</v>
       </c>
       <c r="C162" s="0">
-        <v>35.404042160737809</v>
+        <v>35.415257095845334</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="0">
-        <v>80.5</v>
+        <v>80.560000000000002</v>
       </c>
       <c r="B163" s="0">
-        <v>1.8050000000000002</v>
+        <v>1.8056000000000001</v>
       </c>
       <c r="C163" s="0">
-        <v>35.477340535792706</v>
+        <v>35.488618675442211</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="0">
-        <v>81</v>
+        <v>81.060000000000002</v>
       </c>
       <c r="B164" s="0">
-        <v>1.8100000000000001</v>
+        <v>1.8106</v>
       </c>
       <c r="C164" s="0">
-        <v>35.56507966622749</v>
+        <v>35.57650102838339</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="0">
-        <v>81.5</v>
+        <v>81.560000000000002</v>
       </c>
       <c r="B165" s="0">
-        <v>1.8149999999999999</v>
+        <v>1.8155999999999999</v>
       </c>
       <c r="C165" s="0">
-        <v>35.642693719806751</v>
+        <v>35.649645413410127</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="0">
-        <v>82</v>
+        <v>82.060000000000002</v>
       </c>
       <c r="B166" s="0">
-        <v>1.8200000000000001</v>
+        <v>1.8206</v>
       </c>
       <c r="C166" s="0">
-        <v>35.723674132630649</v>
+        <v>35.732577540106952</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="0">
-        <v>82.5</v>
+        <v>82.560000000000002</v>
       </c>
       <c r="B167" s="0">
-        <v>1.8250000000000002</v>
+        <v>1.8256000000000001</v>
       </c>
       <c r="C167" s="0">
-        <v>35.796225032938068</v>
+        <v>35.81115014397367</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="0">
-        <v>83</v>
+        <v>83.060000000000002</v>
       </c>
       <c r="B168" s="0">
-        <v>1.8300000000000001</v>
+        <v>1.8306</v>
       </c>
       <c r="C168" s="0">
-        <v>35.876867632850242</v>
+        <v>35.883902920608804</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="0">
-        <v>83.5</v>
+        <v>83.560000000000002</v>
       </c>
       <c r="B169" s="0">
-        <v>1.835</v>
+        <v>1.8355999999999999</v>
       </c>
       <c r="C169" s="0">
-        <v>35.95697373737373</v>
+        <v>35.966769230769238</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="0">
-        <v>84</v>
+        <v>84.060000000000002</v>
       </c>
       <c r="B170" s="0">
-        <v>1.8399999999999999</v>
+        <v>1.8406</v>
       </c>
       <c r="C170" s="0">
-        <v>36.029313306982864</v>
+        <v>36.036593994241066</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="0">
-        <v>84.5</v>
+        <v>84.560000000000002</v>
       </c>
       <c r="B171" s="0">
-        <v>1.845</v>
+        <v>1.8456000000000001</v>
       </c>
       <c r="C171" s="0">
-        <v>36.105884409310491</v>
+        <v>36.115939942410542</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="0">
-        <v>85</v>
+        <v>85.060000000000002</v>
       </c>
       <c r="B172" s="0">
-        <v>1.8500000000000001</v>
+        <v>1.8506</v>
       </c>
       <c r="C172" s="0">
-        <v>36.17901888449714</v>
+        <v>36.1847313862608</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="0">
-        <v>85.5</v>
+        <v>85.560000000000002</v>
       </c>
       <c r="B173" s="0">
-        <v>1.855</v>
+        <v>1.8555999999999999</v>
       </c>
       <c r="C173" s="0">
-        <v>36.254838823012726</v>
+        <v>36.260501028383381</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="0">
-        <v>86</v>
+        <v>86.060000000000002</v>
       </c>
       <c r="B174" s="0">
-        <v>1.8599999999999999</v>
+        <v>1.8606</v>
       </c>
       <c r="C174" s="0">
-        <v>36.333616688625376</v>
+        <v>36.341708761826411</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="0">
-        <v>86.5</v>
+        <v>86.560000000000002</v>
       </c>
       <c r="B175" s="0">
-        <v>1.865</v>
+        <v>1.8656000000000001</v>
       </c>
       <c r="C175" s="0">
-        <v>36.401770575318388</v>
+        <v>36.412109419991779</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="0">
-        <v>87</v>
+        <v>87.060000000000002</v>
       </c>
       <c r="B176" s="0">
-        <v>1.8700000000000001</v>
+        <v>1.8706</v>
       </c>
       <c r="C176" s="0">
-        <v>36.47781941150636</v>
+        <v>36.483148498560261</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="0">
-        <v>87.5</v>
+        <v>87.560000000000002</v>
       </c>
       <c r="B177" s="0">
-        <v>1.875</v>
+        <v>1.8755999999999999</v>
       </c>
       <c r="C177" s="0">
-        <v>36.55503961352656</v>
+        <v>36.565689839572194</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="0">
-        <v>88</v>
+        <v>88.060000000000002</v>
       </c>
       <c r="B178" s="0">
-        <v>1.8799999999999999</v>
+        <v>1.8806</v>
       </c>
       <c r="C178" s="0">
-        <v>36.616998858146687</v>
+        <v>36.625118881118894</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="0">
-        <v>88.5</v>
+        <v>88.560000000000002</v>
       </c>
       <c r="B179" s="0">
-        <v>1.885</v>
+        <v>1.8856000000000002</v>
       </c>
       <c r="C179" s="0">
-        <v>36.695407465963989</v>
+        <v>36.697935828877007</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="0">
-        <v>89</v>
+        <v>89.060000000000002</v>
       </c>
       <c r="B180" s="0">
-        <v>1.8900000000000001</v>
+        <v>1.8906000000000001</v>
       </c>
       <c r="C180" s="0">
-        <v>36.768193236714971</v>
+        <v>36.78156972439325</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="0">
-        <v>89.5</v>
+        <v>89.560000000000002</v>
       </c>
       <c r="B181" s="0">
-        <v>1.895</v>
+        <v>1.8956</v>
       </c>
       <c r="C181" s="0">
-        <v>36.836963724198498</v>
+        <v>36.847990127519537</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="0">
-        <v>90</v>
+        <v>90.060000000000002</v>
       </c>
       <c r="B182" s="0">
-        <v>1.8999999999999999</v>
+        <v>1.9006000000000001</v>
       </c>
       <c r="C182" s="0">
-        <v>36.917604918752737</v>
+        <v>36.926377622377615</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="0">
-        <v>90.5</v>
+        <v>90.560000000000002</v>
       </c>
       <c r="B183" s="0">
-        <v>1.905</v>
+        <v>1.9056000000000002</v>
       </c>
       <c r="C183" s="0">
-        <v>36.984804743083004</v>
+        <v>36.995879884821065</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="0">
-        <v>91</v>
+        <v>91.060000000000002</v>
       </c>
       <c r="B184" s="0">
-        <v>1.9100000000000001</v>
+        <v>1.9106000000000001</v>
       </c>
       <c r="C184" s="0">
-        <v>37.053927272727265</v>
+        <v>37.06310324969148</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="0">
-        <v>91.5</v>
+        <v>91.560000000000002</v>
       </c>
       <c r="B185" s="0">
-        <v>1.915</v>
+        <v>1.9156</v>
       </c>
       <c r="C185" s="0">
-        <v>37.125752832674564</v>
+        <v>37.14245331139449</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="0">
-        <v>92</v>
+        <v>92.060000000000002</v>
       </c>
       <c r="B186" s="0">
-        <v>1.9199999999999999</v>
+        <v>1.9206000000000001</v>
       </c>
       <c r="C186" s="0">
-        <v>37.205659552042157</v>
+        <v>37.214762649115599</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="0">
-        <v>92.5</v>
+        <v>92.560000000000002</v>
       </c>
       <c r="B187" s="0">
-        <v>1.925</v>
+        <v>1.9256000000000002</v>
       </c>
       <c r="C187" s="0">
-        <v>37.269304699165559</v>
+        <v>37.284245989304821</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="0">
-        <v>93</v>
+        <v>93.060000000000002</v>
       </c>
       <c r="B188" s="0">
-        <v>1.9300000000000002</v>
+        <v>1.9306000000000001</v>
       </c>
       <c r="C188" s="0">
-        <v>37.326833025911284</v>
+        <v>37.334492801316337</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="0">
-        <v>93.5</v>
+        <v>93.560000000000002</v>
       </c>
       <c r="B189" s="0">
-        <v>1.9350000000000001</v>
+        <v>1.9356</v>
       </c>
       <c r="C189" s="0">
-        <v>37.404687922705307</v>
+        <v>37.414566022213087</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="0">
-        <v>94</v>
+        <v>94.060000000000002</v>
       </c>
       <c r="B190" s="0">
-        <v>1.9399999999999999</v>
+        <v>1.9405999999999999</v>
       </c>
       <c r="C190" s="0">
-        <v>37.476997277119004</v>
+        <v>37.483889757301533</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="0">
-        <v>94.5</v>
+        <v>94.560000000000002</v>
       </c>
       <c r="B191" s="0">
-        <v>1.9450000000000001</v>
+        <v>1.9456</v>
       </c>
       <c r="C191" s="0">
-        <v>37.545337022397895</v>
+        <v>37.551224187577127</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="0">
-        <v>95</v>
+        <v>95.060000000000002</v>
       </c>
       <c r="B192" s="0">
-        <v>1.9500000000000002</v>
+        <v>1.9506000000000001</v>
       </c>
       <c r="C192" s="0">
-        <v>37.609148704435654</v>
+        <v>37.618965034965044</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="0">
-        <v>95.5</v>
+        <v>95.560000000000002</v>
       </c>
       <c r="B193" s="0">
-        <v>1.9550000000000001</v>
+        <v>1.9556</v>
       </c>
       <c r="C193" s="0">
-        <v>37.681417479139199</v>
+        <v>37.688407239819014</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="0">
-        <v>96</v>
+        <v>96.060000000000002</v>
       </c>
       <c r="B194" s="0">
-        <v>1.96</v>
+        <v>1.9605999999999999</v>
       </c>
       <c r="C194" s="0">
-        <v>37.755161001317518</v>
+        <v>37.763034965034961</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="0">
-        <v>96.5</v>
+        <v>96.560000000000002</v>
       </c>
       <c r="B195" s="0">
-        <v>1.9649999999999999</v>
+        <v>1.9656</v>
       </c>
       <c r="C195" s="0">
-        <v>37.817192270531393</v>
+        <v>37.82542410530646</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="0">
-        <v>97</v>
+        <v>97.060000000000002</v>
       </c>
       <c r="B196" s="0">
-        <v>1.97</v>
+        <v>1.9706000000000001</v>
       </c>
       <c r="C196" s="0">
-        <v>37.883928502415444</v>
+        <v>37.888597285067874</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="0">
-        <v>97.5</v>
+        <v>97.560000000000002</v>
       </c>
       <c r="B197" s="0">
-        <v>1.9750000000000001</v>
+        <v>1.9756</v>
       </c>
       <c r="C197" s="0">
-        <v>37.949811155028542</v>
+        <v>37.957029206088031</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="0">
-        <v>98</v>
+        <v>98.060000000000002</v>
       </c>
       <c r="B198" s="0">
-        <v>1.98</v>
+        <v>1.9805999999999999</v>
       </c>
       <c r="C198" s="0">
-        <v>38.017543610013163</v>
+        <v>38.025239819004526</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="0">
-        <v>98.5</v>
+        <v>98.560000000000002</v>
       </c>
       <c r="B199" s="0">
-        <v>1.9849999999999999</v>
+        <v>1.9856</v>
       </c>
       <c r="C199" s="0">
-        <v>38.082311989459811</v>
+        <v>38.090013986013993</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="0">
-        <v>99</v>
+        <v>99.060000000000002</v>
       </c>
       <c r="B200" s="0">
-        <v>1.99</v>
+        <v>1.9906000000000001</v>
       </c>
       <c r="C200" s="0">
-        <v>38.144261747913916</v>
+        <v>38.151461127108199</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="0">
-        <v>99.5</v>
+        <v>99.560000000000002</v>
       </c>
       <c r="B201" s="0">
-        <v>1.9950000000000001</v>
+        <v>1.9956</v>
       </c>
       <c r="C201" s="0">
-        <v>38.210003513394803</v>
+        <v>38.218872891814073</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="0">
-        <v>100</v>
+        <v>100.06</v>
       </c>
       <c r="B202" s="0">
-        <v>2</v>
+        <v>2.0005999999999999</v>
       </c>
       <c r="C202" s="0">
-        <v>38.277465963987694</v>
+        <v>38.290408062525714</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="0">
-        <v>100.5</v>
+        <v>100.56</v>
       </c>
       <c r="B203" s="0">
-        <v>2.0049999999999999</v>
+        <v>2.0056000000000003</v>
       </c>
       <c r="C203" s="0">
-        <v>38.336537900746585</v>
+        <v>38.343183052241891</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="0">
-        <v>101</v>
+        <v>101.06</v>
       </c>
       <c r="B204" s="0">
-        <v>2.0099999999999998</v>
+        <v>2.0106000000000002</v>
       </c>
       <c r="C204" s="0">
-        <v>38.400873956960908</v>
+        <v>38.410630193336075</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="0">
-        <v>101.5</v>
+        <v>101.56</v>
       </c>
       <c r="B205" s="0">
-        <v>2.0150000000000001</v>
+        <v>2.0156000000000001</v>
       </c>
       <c r="C205" s="0">
-        <v>38.467861045234947</v>
+        <v>38.475767996709173</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="0">
-        <v>102</v>
+        <v>102.06</v>
       </c>
       <c r="B206" s="0">
-        <v>2.02</v>
+        <v>2.0206</v>
       </c>
       <c r="C206" s="0">
-        <v>38.531479314888003</v>
+        <v>38.542684491978612</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="0">
-        <v>102.5</v>
+        <v>102.56</v>
       </c>
       <c r="B207" s="0">
-        <v>2.0249999999999999</v>
+        <v>2.0255999999999998</v>
       </c>
       <c r="C207" s="0">
-        <v>38.598066930171264</v>
+        <v>38.603009461127108</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="0">
-        <v>103</v>
+        <v>103.06</v>
       </c>
       <c r="B208" s="0">
-        <v>2.0300000000000002</v>
+        <v>2.0305999999999997</v>
       </c>
       <c r="C208" s="0">
-        <v>38.662300570926647</v>
+        <v>38.669564788153025</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="0">
-        <v>103.5</v>
+        <v>103.56</v>
       </c>
       <c r="B209" s="0">
-        <v>2.0350000000000001</v>
+        <v>2.0356000000000001</v>
       </c>
       <c r="C209" s="0">
-        <v>38.725433289415889</v>
+        <v>38.730212258329907</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="0">
-        <v>104</v>
+        <v>104.06</v>
       </c>
       <c r="B210" s="0">
-        <v>2.04</v>
+        <v>2.0406</v>
       </c>
       <c r="C210" s="0">
-        <v>38.786559332454978</v>
+        <v>38.793758946935426</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="0">
-        <v>104.5</v>
+        <v>104.56</v>
       </c>
       <c r="B211" s="0">
-        <v>2.0449999999999999</v>
+        <v>2.0456000000000003</v>
       </c>
       <c r="C211" s="0">
-        <v>38.843411155028541</v>
+        <v>38.852406417112299</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="0">
-        <v>105</v>
+        <v>105.06</v>
       </c>
       <c r="B212" s="0">
-        <v>2.0499999999999998</v>
+        <v>2.0506000000000002</v>
       </c>
       <c r="C212" s="0">
-        <v>38.913685551163809</v>
+        <v>38.925965446318386</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="0">
-        <v>105.5</v>
+        <v>105.56</v>
       </c>
       <c r="B213" s="0">
-        <v>2.0549999999999997</v>
+        <v>2.0556000000000001</v>
       </c>
       <c r="C213" s="0">
-        <v>38.973519894598148</v>
+        <v>38.985646236116835</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="0">
-        <v>106</v>
+        <v>106.06</v>
       </c>
       <c r="B214" s="0">
-        <v>2.0600000000000001</v>
+        <v>2.0606</v>
       </c>
       <c r="C214" s="0">
-        <v>39.039403601229687</v>
+        <v>39.048298642533943</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="0">
-        <v>106.5</v>
+        <v>106.56</v>
       </c>
       <c r="B215" s="0">
-        <v>2.0649999999999999</v>
+        <v>2.0655999999999999</v>
       </c>
       <c r="C215" s="0">
-        <v>39.096392270531396</v>
+        <v>39.103267791032501</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="0">
-        <v>107</v>
+        <v>107.06</v>
       </c>
       <c r="B216" s="0">
-        <v>2.0700000000000003</v>
+        <v>2.0705999999999998</v>
       </c>
       <c r="C216" s="0">
-        <v>39.161503381642504</v>
+        <v>39.173012751953941</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="0">
-        <v>107.5</v>
+        <v>107.56</v>
       </c>
       <c r="B217" s="0">
-        <v>2.0750000000000002</v>
+        <v>2.0756000000000001</v>
       </c>
       <c r="C217" s="0">
-        <v>39.218601668862533</v>
+        <v>39.225729329494044</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="0">
-        <v>108</v>
+        <v>108.06</v>
       </c>
       <c r="B218" s="0">
-        <v>2.0800000000000001</v>
+        <v>2.0806</v>
       </c>
       <c r="C218" s="0">
-        <v>39.280714448836186</v>
+        <v>39.289677498971621</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="0">
-        <v>108.5</v>
+        <v>108.56</v>
       </c>
       <c r="B219" s="0">
-        <v>2.085</v>
+        <v>2.0856000000000003</v>
       </c>
       <c r="C219" s="0">
-        <v>39.343693104962668</v>
+        <v>39.356322501028387</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="0">
-        <v>109</v>
+        <v>109.06</v>
       </c>
       <c r="B220" s="0">
-        <v>2.0899999999999999</v>
+        <v>2.0906000000000002</v>
       </c>
       <c r="C220" s="0">
-        <v>39.406013526570042</v>
+        <v>39.413816536404788</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="0">
-        <v>109.5</v>
+        <v>109.56</v>
       </c>
       <c r="B221" s="0">
-        <v>2.0949999999999998</v>
+        <v>2.0956000000000001</v>
       </c>
       <c r="C221" s="0">
-        <v>39.459964690382066</v>
+        <v>39.468532291238184</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="0">
-        <v>110</v>
+        <v>110.06</v>
       </c>
       <c r="B222" s="0">
-        <v>2.1000000000000001</v>
+        <v>2.1006</v>
       </c>
       <c r="C222" s="0">
-        <v>39.527968906455854</v>
+        <v>39.541179761415066</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="0">
-        <v>110.5</v>
+        <v>110.56</v>
       </c>
       <c r="B223" s="0">
-        <v>2.105</v>
+        <v>2.1055999999999999</v>
       </c>
       <c r="C223" s="0">
-        <v>39.577380588493625</v>
+        <v>39.581684080625266</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="0">
-        <v>111</v>
+        <v>111.06</v>
       </c>
       <c r="B224" s="0">
-        <v>2.1100000000000003</v>
+        <v>2.1105999999999998</v>
       </c>
       <c r="C224" s="0">
-        <v>39.642707597716289</v>
+        <v>39.647076100370221</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="0">
-        <v>111.5</v>
+        <v>111.56</v>
       </c>
       <c r="B225" s="0">
-        <v>2.1150000000000002</v>
+        <v>2.1156000000000001</v>
       </c>
       <c r="C225" s="0">
-        <v>39.710563197189281</v>
+        <v>39.714423693953108</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="0">
-        <v>112</v>
+        <v>112.06</v>
       </c>
       <c r="B226" s="0">
-        <v>2.1200000000000001</v>
+        <v>2.1206</v>
       </c>
       <c r="C226" s="0">
-        <v>39.759437681159412</v>
+        <v>39.76361579596874</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="0">
-        <v>112.5</v>
+        <v>112.56</v>
       </c>
       <c r="B227" s="0">
-        <v>2.125</v>
+        <v>2.1256000000000004</v>
       </c>
       <c r="C227" s="0">
-        <v>39.822943873517779</v>
+        <v>39.836250102838349</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="0">
-        <v>113</v>
+        <v>113.06</v>
       </c>
       <c r="B228" s="0">
-        <v>2.1299999999999999</v>
+        <v>2.1306000000000003</v>
       </c>
       <c r="C228" s="0">
-        <v>39.879785331576628</v>
+        <v>39.885929247223373</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="0">
-        <v>113.5</v>
+        <v>113.56</v>
       </c>
       <c r="B229" s="0">
-        <v>2.1349999999999998</v>
+        <v>2.1356000000000002</v>
       </c>
       <c r="C229" s="0">
-        <v>39.931995959595952</v>
+        <v>39.934779925956398</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="0">
-        <v>114</v>
+        <v>114.06</v>
       </c>
       <c r="B230" s="0">
-        <v>2.1400000000000001</v>
+        <v>2.1406000000000001</v>
       </c>
       <c r="C230" s="0">
-        <v>39.994396662274916</v>
+        <v>40.005068696009872</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="0">
-        <v>114.5</v>
+        <v>114.56</v>
       </c>
       <c r="B231" s="0">
-        <v>2.145</v>
+        <v>2.1456</v>
       </c>
       <c r="C231" s="0">
-        <v>40.052673869126032</v>
+        <v>40.060728918140683</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="0">
-        <v>115</v>
+        <v>115.06</v>
       </c>
       <c r="B232" s="0">
-        <v>2.1500000000000004</v>
+        <v>2.1505999999999998</v>
       </c>
       <c r="C232" s="0">
-        <v>40.116362933684663</v>
+        <v>40.123906211435624</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="0">
-        <v>115.5</v>
+        <v>115.56</v>
       </c>
       <c r="B233" s="0">
-        <v>2.1550000000000002</v>
+        <v>2.1555999999999997</v>
       </c>
       <c r="C233" s="0">
-        <v>40.173134826526123</v>
+        <v>40.178346359522841</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="0">
-        <v>116</v>
+        <v>116.06</v>
       </c>
       <c r="B234" s="0">
-        <v>2.1600000000000001</v>
+        <v>2.1606000000000001</v>
       </c>
       <c r="C234" s="0">
-        <v>40.219885638998676</v>
+        <v>40.227178116001646</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="0">
-        <v>116.5</v>
+        <v>116.56</v>
       </c>
       <c r="B235" s="0">
-        <v>2.165</v>
+        <v>2.1656</v>
       </c>
       <c r="C235" s="0">
-        <v>40.288477646025463</v>
+        <v>40.29283669271905</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="0">
-        <v>117</v>
+        <v>117.06</v>
       </c>
       <c r="B236" s="0">
-        <v>2.1699999999999999</v>
+        <v>2.1706000000000003</v>
       </c>
       <c r="C236" s="0">
-        <v>40.341056829161168</v>
+        <v>40.353013574660636</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="0">
-        <v>117.5</v>
+        <v>117.56</v>
       </c>
       <c r="B237" s="0">
-        <v>2.1749999999999998</v>
+        <v>2.1756000000000002</v>
       </c>
       <c r="C237" s="0">
-        <v>40.397681335090027</v>
+        <v>40.399677498971613</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="0">
-        <v>118</v>
+        <v>118.06</v>
       </c>
       <c r="B238" s="0">
-        <v>2.1799999999999997</v>
+        <v>2.1806000000000001</v>
       </c>
       <c r="C238" s="0">
-        <v>40.462493280632408</v>
+        <v>40.470647470176885</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="0">
-        <v>118.5</v>
+        <v>118.56</v>
       </c>
       <c r="B239" s="0">
-        <v>2.1850000000000001</v>
+        <v>2.1856</v>
       </c>
       <c r="C239" s="0">
-        <v>40.513162406675448</v>
+        <v>40.517423282599751</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="0">
-        <v>119</v>
+        <v>119.06</v>
       </c>
       <c r="B240" s="0">
-        <v>2.1899999999999999</v>
+        <v>2.1905999999999999</v>
       </c>
       <c r="C240" s="0">
-        <v>40.56590847606499</v>
+        <v>40.577885643768006</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="0">
-        <v>119.5</v>
+        <v>119.56</v>
       </c>
       <c r="B241" s="0">
-        <v>2.1950000000000003</v>
+        <v>2.1955999999999998</v>
       </c>
       <c r="C241" s="0">
-        <v>40.617534650856385</v>
+        <v>40.624899218428631</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="0">
-        <v>120</v>
+        <v>120.06</v>
       </c>
       <c r="B242" s="0">
-        <v>2.2000000000000002</v>
+        <v>2.2006000000000001</v>
       </c>
       <c r="C242" s="0">
-        <v>40.675149055775137</v>
+        <v>40.6882599753188</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="0">
-        <v>120.5</v>
+        <v>120.56</v>
       </c>
       <c r="B243" s="0">
-        <v>2.2050000000000001</v>
+        <v>2.2056</v>
       </c>
       <c r="C243" s="0">
-        <v>40.73273535353534</v>
+        <v>40.737398601398603</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="0">
-        <v>121</v>
+        <v>121.06</v>
       </c>
       <c r="B244" s="0">
-        <v>2.21</v>
+        <v>2.2106000000000003</v>
       </c>
       <c r="C244" s="0">
-        <v>40.790272815107585</v>
+        <v>40.802784039489936</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="0">
-        <v>121.5</v>
+        <v>121.56</v>
       </c>
       <c r="B245" s="0">
-        <v>2.2149999999999999</v>
+        <v>2.2156000000000002</v>
       </c>
       <c r="C245" s="0">
-        <v>40.838443390425994</v>
+        <v>40.842900041135337</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="0">
-        <v>122</v>
+        <v>122.06</v>
       </c>
       <c r="B246" s="0">
-        <v>2.2199999999999998</v>
+        <v>2.2206000000000001</v>
       </c>
       <c r="C246" s="0">
-        <v>40.892471848924011</v>
+        <v>40.893394487865081</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="0">
-        <v>122.5</v>
+        <v>122.56</v>
       </c>
       <c r="B247" s="0">
-        <v>2.2250000000000001</v>
+        <v>2.2256</v>
       </c>
       <c r="C247" s="0">
-        <v>40.961303293807639</v>
+        <v>40.966960098724812</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="0">
-        <v>123</v>
+        <v>123.06</v>
       </c>
       <c r="B248" s="0">
-        <v>2.23</v>
+        <v>2.2305999999999999</v>
       </c>
       <c r="C248" s="0">
-        <v>41.006966359244615</v>
+        <v>41.008581653640491</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="0">
-        <v>123.5</v>
+        <v>123.56</v>
       </c>
       <c r="B249" s="0">
-        <v>2.2350000000000003</v>
+        <v>2.2355999999999998</v>
       </c>
       <c r="C249" s="0">
-        <v>41.061248309178737</v>
+        <v>41.06465405183053</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="0">
-        <v>124</v>
+        <v>124.06</v>
       </c>
       <c r="B250" s="0">
-        <v>2.2400000000000002</v>
+        <v>2.2406000000000001</v>
       </c>
       <c r="C250" s="0">
-        <v>41.118158629776019</v>
+        <v>41.125197038255862</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="0">
-        <v>124.5</v>
+        <v>124.56</v>
       </c>
       <c r="B251" s="0">
-        <v>2.2450000000000001</v>
+        <v>2.2456</v>
       </c>
       <c r="C251" s="0">
-        <v>41.170298989898981</v>
+        <v>41.1778041958042</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="0">
-        <v>125</v>
+        <v>125.06</v>
       </c>
       <c r="B252" s="0">
-        <v>2.25</v>
+        <v>2.2506000000000004</v>
       </c>
       <c r="C252" s="0">
-        <v>41.226243829600342</v>
+        <v>41.232289592760189</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="0">
-        <v>125.5</v>
+        <v>125.56</v>
       </c>
       <c r="B253" s="0">
-        <v>2.2549999999999999</v>
+        <v>2.2556000000000003</v>
       </c>
       <c r="C253" s="0">
-        <v>41.280637856829145</v>
+        <v>41.291786096256693</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="0">
-        <v>126</v>
+        <v>126.06</v>
       </c>
       <c r="B254" s="0">
-        <v>2.2599999999999998</v>
+        <v>2.2606000000000002</v>
       </c>
       <c r="C254" s="0">
-        <v>41.330511725955191</v>
+        <v>41.338245989304824</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="0">
-        <v>126.5</v>
+        <v>126.56</v>
       </c>
       <c r="B255" s="0">
-        <v>2.2650000000000001</v>
+        <v>2.2656000000000001</v>
       </c>
       <c r="C255" s="0">
-        <v>41.385808519982419</v>
+        <v>41.386335664335668</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="0">
-        <v>127</v>
+        <v>127.06</v>
       </c>
       <c r="B256" s="0">
-        <v>2.27</v>
+        <v>2.2706</v>
       </c>
       <c r="C256" s="0">
-        <v>41.438234167764598</v>
+        <v>41.445679967091749</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="0">
-        <v>127.5</v>
+        <v>127.56</v>
       </c>
       <c r="B257" s="0">
-        <v>2.2750000000000004</v>
+        <v>2.2755999999999998</v>
       </c>
       <c r="C257" s="0">
-        <v>41.491947474747462</v>
+        <v>41.5005191279309</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="0">
-        <v>128</v>
+        <v>128.06</v>
       </c>
       <c r="B258" s="0">
-        <v>2.2800000000000002</v>
+        <v>2.2805999999999997</v>
       </c>
       <c r="C258" s="0">
-        <v>41.543519718928408</v>
+        <v>41.547575483340189</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="0">
-        <v>128.5</v>
+        <v>128.56</v>
       </c>
       <c r="B259" s="0">
-        <v>2.2850000000000001</v>
+        <v>2.2856000000000001</v>
       </c>
       <c r="C259" s="0">
-        <v>41.604444971453653</v>
+        <v>41.616066639243115</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="0">
-        <v>129</v>
+        <v>129.06</v>
       </c>
       <c r="B260" s="0">
-        <v>2.29</v>
+        <v>2.2906</v>
       </c>
       <c r="C260" s="0">
-        <v>41.653297848045675</v>
+        <v>41.662872891814075</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="0">
-        <v>129.5</v>
+        <v>129.56</v>
       </c>
       <c r="B261" s="0">
-        <v>2.2949999999999999</v>
+        <v>2.2956000000000003</v>
       </c>
       <c r="C261" s="0">
-        <v>41.716201493192784</v>
+        <v>41.721395310571786</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="0">
-        <v>130</v>
+        <v>130.06</v>
       </c>
       <c r="B262" s="0">
-        <v>2.2999999999999998</v>
+        <v>2.3006000000000002</v>
       </c>
       <c r="C262" s="0">
-        <v>41.76373210364514</v>
+        <v>41.76625339366516</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="0">
-        <v>130.5</v>
+        <v>130.56</v>
       </c>
       <c r="B263" s="0">
-        <v>2.3049999999999997</v>
+        <v>2.3056000000000001</v>
       </c>
       <c r="C263" s="0">
-        <v>41.813767237593311</v>
+        <v>41.821576306046907</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="0">
-        <v>131</v>
+        <v>131.06</v>
       </c>
       <c r="B264" s="0">
-        <v>2.3100000000000001</v>
+        <v>2.3106</v>
       </c>
       <c r="C264" s="0">
-        <v>41.869174703557299</v>
+        <v>41.875636363636367</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="0">
-        <v>131.5</v>
+        <v>131.56</v>
       </c>
       <c r="B265" s="0">
-        <v>2.3149999999999999</v>
+        <v>2.3155999999999999</v>
       </c>
       <c r="C265" s="0">
-        <v>41.917729819938515</v>
+        <v>41.92356561085974</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="0">
-        <v>132</v>
+        <v>132.06</v>
       </c>
       <c r="B266" s="0">
-        <v>2.3200000000000003</v>
+        <v>2.3205999999999998</v>
       </c>
       <c r="C266" s="0">
-        <v>41.972028458498009</v>
+        <v>41.978941176470599</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="0">
-        <v>132.5</v>
+        <v>132.56</v>
       </c>
       <c r="B267" s="0">
-        <v>2.3250000000000002</v>
+        <v>2.3256000000000001</v>
       </c>
       <c r="C267" s="0">
-        <v>42.025507773386032</v>
+        <v>42.033112299465245</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="0">
-        <v>133</v>
+        <v>133.06</v>
       </c>
       <c r="B268" s="0">
-        <v>2.3300000000000001</v>
+        <v>2.3306</v>
       </c>
       <c r="C268" s="0">
-        <v>42.078496618357477</v>
+        <v>42.089457836281369</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="0">
-        <v>133.5</v>
+        <v>133.56</v>
       </c>
       <c r="B269" s="0">
-        <v>2.335</v>
+        <v>2.3356000000000003</v>
       </c>
       <c r="C269" s="0">
-        <v>42.126808432147556</v>
+        <v>42.136872891814065</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="0">
-        <v>134</v>
+        <v>134.06</v>
       </c>
       <c r="B270" s="0">
-        <v>2.3399999999999999</v>
+        <v>2.3406000000000002</v>
       </c>
       <c r="C270" s="0">
-        <v>42.179437329819919</v>
+        <v>42.182598930481291</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="0">
-        <v>134.5</v>
+        <v>134.56</v>
       </c>
       <c r="B271" s="0">
-        <v>2.3449999999999998</v>
+        <v>2.3456000000000001</v>
       </c>
       <c r="C271" s="0">
-        <v>42.22437558190601</v>
+        <v>42.237183874948585</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="0">
-        <v>135</v>
+        <v>135.06</v>
       </c>
       <c r="B272" s="0">
-        <v>2.3500000000000001</v>
+        <v>2.3506</v>
       </c>
       <c r="C272" s="0">
-        <v>42.279117435221771</v>
+        <v>42.287653640477181</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="0">
-        <v>135.5</v>
+        <v>135.56</v>
       </c>
       <c r="B273" s="0">
-        <v>2.355</v>
+        <v>2.3555999999999999</v>
       </c>
       <c r="C273" s="0">
-        <v>42.332986736934558</v>
+        <v>42.341244755244773</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="0">
-        <v>136</v>
+        <v>136.06</v>
       </c>
       <c r="B274" s="0">
-        <v>2.3600000000000003</v>
+        <v>2.3605999999999998</v>
       </c>
       <c r="C274" s="0">
-        <v>42.376519455423804</v>
+        <v>42.37264006581654</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="0">
-        <v>136.5</v>
+        <v>136.56</v>
       </c>
       <c r="B275" s="0">
-        <v>2.3650000000000002</v>
+        <v>2.3656000000000001</v>
       </c>
       <c r="C275" s="0">
-        <v>42.429225999121655</v>
+        <v>42.43272891814069</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="0">
-        <v>137</v>
+        <v>137.06</v>
       </c>
       <c r="B276" s="0">
-        <v>2.3700000000000001</v>
+        <v>2.3706</v>
       </c>
       <c r="C276" s="0">
-        <v>42.481914097496698</v>
+        <v>42.485600164541346</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="0">
-        <v>137.5</v>
+        <v>137.56</v>
       </c>
       <c r="B277" s="0">
-        <v>2.375</v>
+        <v>2.3756000000000004</v>
       </c>
       <c r="C277" s="0">
-        <v>42.534623276240652</v>
+        <v>42.539972850678744</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="0">
-        <v>138</v>
+        <v>138.06</v>
       </c>
       <c r="B278" s="0">
-        <v>2.3799999999999999</v>
+        <v>2.3806000000000003</v>
       </c>
       <c r="C278" s="0">
-        <v>42.58785103205971</v>
+        <v>42.59058905800083</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="0">
-        <v>138.5</v>
+        <v>138.56</v>
       </c>
       <c r="B279" s="0">
-        <v>2.3849999999999998</v>
+        <v>2.3856000000000002</v>
       </c>
       <c r="C279" s="0">
-        <v>42.639308388230106</v>
+        <v>42.641265322912389</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="0">
-        <v>139</v>
+        <v>139.06</v>
       </c>
       <c r="B280" s="0">
-        <v>2.3900000000000001</v>
+        <v>2.3906000000000001</v>
       </c>
       <c r="C280" s="0">
-        <v>42.689310320597265</v>
+        <v>42.693265322912389</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="0">
-        <v>139.5</v>
+        <v>139.56</v>
       </c>
       <c r="B281" s="0">
-        <v>2.395</v>
+        <v>2.3956</v>
       </c>
       <c r="C281" s="0">
-        <v>42.734550548967938</v>
+        <v>42.735883998354588</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="0">
-        <v>140</v>
+        <v>140.06</v>
       </c>
       <c r="B282" s="0">
-        <v>2.4000000000000004</v>
+        <v>2.4005999999999998</v>
       </c>
       <c r="C282" s="0">
-        <v>42.782342731664457</v>
+        <v>42.78990127519539</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="0">
-        <v>140.5</v>
+        <v>140.56</v>
       </c>
       <c r="B283" s="0">
-        <v>2.4050000000000002</v>
+        <v>2.4055999999999997</v>
       </c>
       <c r="C283" s="0">
-        <v>42.833520421607368</v>
+        <v>42.838502673796789</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="0">
-        <v>141</v>
+        <v>141.06</v>
       </c>
       <c r="B284" s="0">
-        <v>2.4100000000000001</v>
+        <v>2.4106000000000001</v>
       </c>
       <c r="C284" s="0">
-        <v>42.892693192797537</v>
+        <v>42.899232414644189</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="0">
-        <v>141.5</v>
+        <v>141.56</v>
       </c>
       <c r="B285" s="0">
-        <v>2.415</v>
+        <v>2.4156</v>
       </c>
       <c r="C285" s="0">
-        <v>42.946064646464627</v>
+        <v>42.946292060880303</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="0">
-        <v>142</v>
+        <v>142.06</v>
       </c>
       <c r="B286" s="0">
-        <v>2.4199999999999999</v>
+        <v>2.4206000000000003</v>
       </c>
       <c r="C286" s="0">
-        <v>42.989799912165125</v>
+        <v>42.991419991772936</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="0">
-        <v>142.5</v>
+        <v>142.56</v>
       </c>
       <c r="B287" s="0">
-        <v>2.4249999999999998</v>
+        <v>2.4256000000000002</v>
       </c>
       <c r="C287" s="0">
-        <v>43.03726218708826</v>
+        <v>43.043583710407233</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="0">
-        <v>143</v>
+        <v>143.06</v>
       </c>
       <c r="B288" s="0">
-        <v>2.4299999999999997</v>
+        <v>2.4306000000000001</v>
       </c>
       <c r="C288" s="0">
-        <v>43.085463504611326</v>
+        <v>43.091447141094214</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="0">
-        <v>143.5</v>
+        <v>143.56</v>
       </c>
       <c r="B289" s="0">
-        <v>2.4350000000000001</v>
+        <v>2.4356</v>
       </c>
       <c r="C289" s="0">
-        <v>43.143104435660945</v>
+        <v>43.148222953517077</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="0">
-        <v>144</v>
+        <v>144.06</v>
       </c>
       <c r="B290" s="0">
-        <v>2.4399999999999999</v>
+        <v>2.4405999999999999</v>
       </c>
       <c r="C290" s="0">
-        <v>43.187358805445747</v>
+        <v>43.189004524886883</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="0">
-        <v>144.5</v>
+        <v>144.56</v>
       </c>
       <c r="B291" s="0">
-        <v>2.4450000000000003</v>
+        <v>2.4455999999999998</v>
       </c>
       <c r="C291" s="0">
-        <v>43.241838735177843</v>
+        <v>43.245387083504731</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="0">
-        <v>145</v>
+        <v>145.06</v>
       </c>
       <c r="B292" s="0">
-        <v>2.4500000000000002</v>
+        <v>2.4506000000000001</v>
       </c>
       <c r="C292" s="0">
-        <v>43.286079402722876</v>
+        <v>43.290772521596054</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="0">
-        <v>145.5</v>
+        <v>145.56</v>
       </c>
       <c r="B293" s="0">
-        <v>2.4550000000000001</v>
+        <v>2.4556</v>
       </c>
       <c r="C293" s="0">
-        <v>43.334298814229236</v>
+        <v>43.341749074454953</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="0">
-        <v>146</v>
+        <v>146.06</v>
       </c>
       <c r="B294" s="0">
-        <v>2.46</v>
+        <v>2.4606000000000003</v>
       </c>
       <c r="C294" s="0">
-        <v>43.395265876152834</v>
+        <v>43.392849856026331</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="0">
-        <v>146.5</v>
+        <v>146.56</v>
       </c>
       <c r="B295" s="0">
-        <v>2.4649999999999999</v>
+        <v>2.4656000000000002</v>
       </c>
       <c r="C295" s="0">
-        <v>43.431202810715838</v>
+        <v>43.438812011517896</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="0">
-        <v>147</v>
+        <v>147.06</v>
       </c>
       <c r="B296" s="0">
-        <v>2.4699999999999998</v>
+        <v>2.4706000000000001</v>
       </c>
       <c r="C296" s="0">
-        <v>43.484875889328045</v>
+        <v>43.487071164129986</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="0">
-        <v>147.5</v>
+        <v>147.56</v>
       </c>
       <c r="B297" s="0">
-        <v>2.4750000000000001</v>
+        <v>2.4756</v>
       </c>
       <c r="C297" s="0">
-        <v>43.534281949934112</v>
+        <v>43.542033730974914</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="0">
-        <v>148</v>
+        <v>148.06</v>
       </c>
       <c r="B298" s="0">
-        <v>2.48</v>
+        <v>2.4805999999999999</v>
       </c>
       <c r="C298" s="0">
-        <v>43.583501097935873</v>
+        <v>43.586506787330322</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="0">
-        <v>148.5</v>
+        <v>148.56</v>
       </c>
       <c r="B299" s="0">
-        <v>2.4850000000000003</v>
+        <v>2.4855999999999998</v>
       </c>
       <c r="C299" s="0">
-        <v>43.635374791392188</v>
+        <v>43.635521184697673</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="0">
-        <v>149</v>
+        <v>149.06</v>
       </c>
       <c r="B300" s="0">
-        <v>2.4900000000000002</v>
+        <v>2.4906000000000001</v>
       </c>
       <c r="C300" s="0">
-        <v>43.676466403162053</v>
+        <v>43.681589469354179</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="0">
-        <v>149.5</v>
+        <v>149.56</v>
       </c>
       <c r="B301" s="0">
-        <v>2.4950000000000001</v>
+        <v>2.4956</v>
       </c>
       <c r="C301" s="0">
-        <v>43.72578058849362</v>
+        <v>43.732828465652005</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="0">
-        <v>150</v>
+        <v>150.03700000000001</v>
       </c>
       <c r="B302" s="0">
-        <v>2.4900000000000002</v>
+        <v>2.4908299999999999</v>
       </c>
       <c r="C302" s="0">
-        <v>43.781818181818181</v>
+        <v>43.424999771470368</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="0">
-        <v>150.477</v>
+        <v>150.53700000000001</v>
       </c>
       <c r="B303" s="0">
-        <v>2.4852300000000001</v>
+        <v>2.48583</v>
       </c>
       <c r="C303" s="0">
-        <v>43.219595480496665</v>
+        <v>43.172844695411541</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="0">
-        <v>150.977</v>
+        <v>151.03700000000001</v>
       </c>
       <c r="B304" s="0">
-        <v>2.4802300000000002</v>
+        <v>2.4808300000000001</v>
       </c>
       <c r="C304" s="0">
-        <v>42.837946340879142</v>
+        <v>42.794635578325419</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="0">
-        <v>151.477</v>
+        <v>151.53700000000001</v>
       </c>
       <c r="B305" s="0">
-        <v>2.4752300000000003</v>
+        <v>2.4758300000000002</v>
       </c>
       <c r="C305" s="0">
-        <v>42.501864015650568</v>
+        <v>42.464558169103626</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="0">
-        <v>151.977</v>
+        <v>152.03700000000001</v>
       </c>
       <c r="B306" s="0">
-        <v>2.4702299999999999</v>
+        <v>2.4708299999999999</v>
       </c>
       <c r="C306" s="0">
-        <v>42.202288577474349</v>
+        <v>42.166708799222171</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="0">
-        <v>152.477</v>
+        <v>152.53700000000001</v>
       </c>
       <c r="B307" s="0">
-        <v>2.46523</v>
+        <v>2.46583</v>
       </c>
       <c r="C307" s="0">
-        <v>41.92692833473069</v>
+        <v>41.894385774653159</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="0">
-        <v>152.977</v>
+        <v>153.03700000000001</v>
       </c>
       <c r="B308" s="0">
-        <v>2.4602300000000001</v>
+        <v>2.4608300000000001</v>
       </c>
       <c r="C308" s="0">
-        <v>41.65638447718289</v>
+        <v>41.627239071089349</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="0">
-        <v>153.477</v>
+        <v>153.53700000000001</v>
       </c>
       <c r="B309" s="0">
-        <v>2.4552300000000002</v>
+        <v>2.4558300000000002</v>
       </c>
       <c r="C309" s="0">
-        <v>41.40678915638599</v>
+        <v>41.3757436146741</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="0">
-        <v>153.977</v>
+        <v>154.03700000000001</v>
       </c>
       <c r="B310" s="0">
-        <v>2.4502299999999999</v>
+        <v>2.4508299999999998</v>
       </c>
       <c r="C310" s="0">
-        <v>41.158993811634119</v>
+        <v>41.129871358587941</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="0">
-        <v>154.477</v>
+        <v>154.53700000000001</v>
       </c>
       <c r="B311" s="0">
-        <v>2.44523</v>
+        <v>2.4458299999999999</v>
       </c>
       <c r="C311" s="0">
-        <v>40.914007745438568</v>
+        <v>40.891297632848442</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="0">
-        <v>154.977</v>
+        <v>155.03700000000001</v>
       </c>
       <c r="B312" s="0">
-        <v>2.4402300000000001</v>
+        <v>2.4408300000000001</v>
       </c>
       <c r="C312" s="0">
-        <v>40.688882740447951</v>
+        <v>40.662050783441174</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="0">
-        <v>155.477</v>
+        <v>155.53700000000001</v>
       </c>
       <c r="B313" s="0">
-        <v>2.4352300000000002</v>
+        <v>2.4358300000000002</v>
       </c>
       <c r="C313" s="0">
-        <v>40.46072567572962</v>
+        <v>40.43933173778094</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="0">
-        <v>155.977</v>
+        <v>156.03700000000001</v>
       </c>
       <c r="B314" s="0">
-        <v>2.4302299999999999</v>
+        <v>2.4308299999999998</v>
       </c>
       <c r="C314" s="0">
-        <v>40.238305984748663</v>
+        <v>40.2106776111589</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="0">
-        <v>156.477</v>
+        <v>156.53700000000001</v>
       </c>
       <c r="B315" s="0">
-        <v>2.42523</v>
+        <v>2.4258299999999999</v>
       </c>
       <c r="C315" s="0">
-        <v>40.021304267976198</v>
+        <v>39.994629595003929</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="0">
-        <v>156.977</v>
+        <v>157.03700000000001</v>
       </c>
       <c r="B316" s="0">
-        <v>2.4202300000000001</v>
+        <v>2.42083</v>
       </c>
       <c r="C316" s="0">
-        <v>39.807979239030615</v>
+        <v>39.783798287274237</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="0">
-        <v>157.477</v>
+        <v>157.53700000000001</v>
       </c>
       <c r="B317" s="0">
-        <v>2.4152300000000002</v>
+        <v>2.4158300000000001</v>
       </c>
       <c r="C317" s="0">
-        <v>39.603535034135817</v>
+        <v>39.579592760181001</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="0">
-        <v>157.977</v>
+        <v>158.03700000000001</v>
       </c>
       <c r="B318" s="0">
-        <v>2.4102299999999999</v>
+        <v>2.4108299999999998</v>
       </c>
       <c r="C318" s="0">
-        <v>39.395550525012965</v>
+        <v>39.371913541004453</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="0">
-        <v>158.477</v>
+        <v>158.53700000000001</v>
       </c>
       <c r="B319" s="0">
-        <v>2.40523</v>
+        <v>2.4058299999999999</v>
       </c>
       <c r="C319" s="0">
-        <v>39.196437976603981</v>
+        <v>39.171668598780904</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="0">
-        <v>158.977</v>
+        <v>159.03700000000001</v>
       </c>
       <c r="B320" s="0">
-        <v>2.4002300000000001</v>
+        <v>2.40083</v>
       </c>
       <c r="C320" s="0">
-        <v>38.988840340160486</v>
+        <v>38.965720803260922</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="0">
-        <v>159.477</v>
+        <v>159.53700000000001</v>
       </c>
       <c r="B321" s="0">
-        <v>2.3952300000000002</v>
+        <v>2.3958300000000001</v>
       </c>
       <c r="C321" s="0">
-        <v>38.79793428354693</v>
+        <v>38.773555588796235</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="0">
-        <v>159.977</v>
+        <v>160.03700000000001</v>
       </c>
       <c r="B322" s="0">
-        <v>2.3902299999999999</v>
+        <v>2.3908299999999998</v>
       </c>
       <c r="C322" s="0">
-        <v>38.604081207330211</v>
+        <v>38.57729853034666</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="0">
-        <v>160.477</v>
+        <v>160.53700000000001</v>
       </c>
       <c r="B323" s="0">
-        <v>2.38523</v>
+        <v>2.3858299999999999</v>
       </c>
       <c r="C323" s="0">
-        <v>38.415442328422557</v>
+        <v>38.393079540780086</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="0">
-        <v>160.977</v>
+        <v>161.03700000000001</v>
       </c>
       <c r="B324" s="0">
-        <v>2.3802300000000001</v>
+        <v>2.38083</v>
       </c>
       <c r="C324" s="0">
-        <v>38.226875873358082</v>
+        <v>38.201504431397474</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="0">
-        <v>161.477</v>
+        <v>161.53700000000001</v>
       </c>
       <c r="B325" s="0">
-        <v>2.3752300000000002</v>
+        <v>2.3758300000000001</v>
       </c>
       <c r="C325" s="0">
-        <v>38.041857707509877</v>
+        <v>38.019109606970574</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="0">
-        <v>161.977</v>
+        <v>162.03700000000001</v>
       </c>
       <c r="B326" s="0">
-        <v>2.3702300000000003</v>
+        <v>2.3708299999999998</v>
       </c>
       <c r="C326" s="0">
-        <v>37.850278196989656</v>
+        <v>37.828866534534988</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="0">
-        <v>162.477</v>
+        <v>162.53700000000001</v>
       </c>
       <c r="B327" s="0">
-        <v>2.3652299999999999</v>
+        <v>2.3658299999999999</v>
       </c>
       <c r="C327" s="0">
-        <v>37.664428075218574</v>
+        <v>37.643070191840245</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="0">
-        <v>162.977</v>
+        <v>163.03700000000001</v>
       </c>
       <c r="B328" s="0">
-        <v>2.3602300000000001</v>
+        <v>2.36083</v>
       </c>
       <c r="C328" s="0">
-        <v>37.486463209166764</v>
+        <v>37.466241352230661</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="0">
-        <v>163.477</v>
+        <v>163.53700000000001</v>
       </c>
       <c r="B329" s="0">
-        <v>2.3552300000000002</v>
+        <v>2.3558300000000001</v>
       </c>
       <c r="C329" s="0">
-        <v>37.304005669341635</v>
+        <v>37.281237799633537</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="0">
-        <v>163.977</v>
+        <v>164.03700000000001</v>
       </c>
       <c r="B330" s="0">
-        <v>2.3502300000000003</v>
+        <v>2.3508300000000002</v>
       </c>
       <c r="C330" s="0">
-        <v>37.134545454545446</v>
+        <v>37.112084813582143</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="0">
-        <v>164.477</v>
+        <v>164.53700000000001</v>
       </c>
       <c r="B331" s="0">
-        <v>2.3452299999999999</v>
+        <v>2.3458299999999999</v>
       </c>
       <c r="C331" s="0">
-        <v>36.948939354014435</v>
+        <v>36.927598444336411</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="0">
-        <v>164.977</v>
+        <v>165.03700000000001</v>
       </c>
       <c r="B332" s="0">
-        <v>2.34023</v>
+        <v>2.34083</v>
       </c>
       <c r="C332" s="0">
-        <v>36.777723400007986</v>
+        <v>36.756700572155125</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="0">
-        <v>165.477</v>
+        <v>165.53700000000001</v>
       </c>
       <c r="B333" s="0">
-        <v>2.3352300000000001</v>
+        <v>2.3358300000000001</v>
       </c>
       <c r="C333" s="0">
-        <v>36.596605821056407</v>
+        <v>36.575243633371976</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="0">
-        <v>165.977</v>
+        <v>166.03700000000001</v>
       </c>
       <c r="B334" s="0">
-        <v>2.3302300000000002</v>
+        <v>2.3308300000000002</v>
       </c>
       <c r="C334" s="0">
-        <v>36.426460334570997</v>
+        <v>36.407232713810259</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="0">
-        <v>166.477</v>
+        <v>166.53700000000001</v>
       </c>
       <c r="B335" s="0">
-        <v>2.3252299999999999</v>
+        <v>2.3258299999999998</v>
       </c>
       <c r="C335" s="0">
-        <v>36.25319926538107</v>
+        <v>36.234231330167169</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="0">
-        <v>166.977</v>
+        <v>167.03700000000001</v>
       </c>
       <c r="B336" s="0">
-        <v>2.32023</v>
+        <v>2.3208299999999999</v>
       </c>
       <c r="C336" s="0">
-        <v>36.085989140416011</v>
+        <v>36.068049063236231</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="0">
-        <v>167.477</v>
+        <v>167.53700000000001</v>
       </c>
       <c r="B337" s="0">
-        <v>2.3152300000000001</v>
+        <v>2.3158300000000001</v>
       </c>
       <c r="C337" s="0">
-        <v>35.914075298438938</v>
+        <v>35.896485172581436</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="0">
-        <v>167.977</v>
+        <v>168.03700000000001</v>
       </c>
       <c r="B338" s="0">
-        <v>2.3102300000000002</v>
+        <v>2.3108300000000002</v>
       </c>
       <c r="C338" s="0">
-        <v>35.74692074899189</v>
+        <v>35.727182229535167</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="0">
-        <v>168.477</v>
+        <v>168.53700000000001</v>
       </c>
       <c r="B339" s="0">
-        <v>2.3052299999999999</v>
+        <v>2.3058299999999998</v>
       </c>
       <c r="C339" s="0">
-        <v>35.583221383798453</v>
+        <v>35.565892075838605</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="0">
-        <v>168.977</v>
+        <v>169.03700000000001</v>
       </c>
       <c r="B340" s="0">
-        <v>2.30023</v>
+        <v>2.3008299999999999</v>
       </c>
       <c r="C340" s="0">
-        <v>35.409828083203571</v>
+        <v>35.389957368834374</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="0">
-        <v>169.477</v>
+        <v>169.53700000000001</v>
       </c>
       <c r="B341" s="0">
-        <v>2.2952300000000001</v>
+        <v>2.29583</v>
       </c>
       <c r="C341" s="0">
-        <v>35.247489679402712</v>
+        <v>35.22861411315958</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="0">
-        <v>169.977</v>
+        <v>170.03700000000001</v>
       </c>
       <c r="B342" s="0">
-        <v>2.2902300000000002</v>
+        <v>2.2908300000000001</v>
       </c>
       <c r="C342" s="0">
-        <v>35.079370303828796</v>
+        <v>35.057736060730718</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="0">
-        <v>170.477</v>
+        <v>170.53700000000001</v>
       </c>
       <c r="B343" s="0">
-        <v>2.2852299999999999</v>
+        <v>2.2858299999999998</v>
       </c>
       <c r="C343" s="0">
-        <v>34.912729508523967</v>
+        <v>34.895627687820202</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="0">
-        <v>170.977</v>
+        <v>171.03700000000001</v>
       </c>
       <c r="B344" s="0">
-        <v>2.28023</v>
+        <v>2.2808299999999999</v>
       </c>
       <c r="C344" s="0">
-        <v>34.755414141414128</v>
+        <v>34.734182341722452</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="0">
-        <v>171.477</v>
+        <v>171.53700000000001</v>
       </c>
       <c r="B345" s="0">
-        <v>2.2752300000000001</v>
+        <v>2.27583</v>
       </c>
       <c r="C345" s="0">
-        <v>34.58853555316005</v>
+        <v>34.570109943532415</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="0">
-        <v>171.977</v>
+        <v>172.03700000000001</v>
       </c>
       <c r="B346" s="0">
-        <v>2.2702300000000002</v>
+        <v>2.2708300000000001</v>
       </c>
       <c r="C346" s="0">
-        <v>34.425896275002984</v>
+        <v>34.403668897946979</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="0">
-        <v>172.477</v>
+        <v>172.53700000000001</v>
       </c>
       <c r="B347" s="0">
-        <v>2.2652299999999999</v>
+        <v>2.2658300000000002</v>
       </c>
       <c r="C347" s="0">
-        <v>34.267630454745074</v>
+        <v>34.251296510975664</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="0">
-        <v>172.977</v>
+        <v>173.03700000000001</v>
       </c>
       <c r="B348" s="0">
-        <v>2.26023</v>
+        <v>2.2608299999999999</v>
       </c>
       <c r="C348" s="0">
-        <v>34.10608424162573</v>
+        <v>34.087468681051575</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="0">
-        <v>173.477</v>
+        <v>173.53700000000001</v>
       </c>
       <c r="B349" s="0">
-        <v>2.2552300000000001</v>
+        <v>2.25583</v>
       </c>
       <c r="C349" s="0">
-        <v>33.954916996047423</v>
+        <v>33.936445907034148</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="0">
-        <v>173.977</v>
+        <v>174.03700000000001</v>
       </c>
       <c r="B350" s="0">
-        <v>2.2502300000000002</v>
+        <v>2.2508300000000001</v>
       </c>
       <c r="C350" s="0">
-        <v>33.780485886533313</v>
+        <v>33.760677985116487</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="0">
-        <v>174.477</v>
+        <v>174.53700000000001</v>
       </c>
       <c r="B351" s="0">
-        <v>2.2452300000000003</v>
+        <v>2.2458299999999998</v>
       </c>
       <c r="C351" s="0">
-        <v>33.631549327264736</v>
+        <v>33.615019632773645</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="0">
-        <v>174.977</v>
+        <v>175.03700000000001</v>
       </c>
       <c r="B352" s="0">
-        <v>2.2402299999999999</v>
+        <v>2.2408299999999999</v>
       </c>
       <c r="C352" s="0">
-        <v>33.471204775022954</v>
+        <v>33.451859317153435</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="0">
-        <v>175.477</v>
+        <v>175.53700000000001</v>
       </c>
       <c r="B353" s="0">
-        <v>2.2352300000000001</v>
+        <v>2.23583</v>
       </c>
       <c r="C353" s="0">
-        <v>33.325186170000393</v>
+        <v>33.306070827568156</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="0">
-        <v>175.977</v>
+        <v>176.03700000000001</v>
       </c>
       <c r="B354" s="0">
-        <v>2.2302300000000002</v>
+        <v>2.2308300000000001</v>
       </c>
       <c r="C354" s="0">
-        <v>33.164223180420812</v>
+        <v>33.145566732732519</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="0">
-        <v>176.477</v>
+        <v>176.53700000000001</v>
       </c>
       <c r="B355" s="0">
-        <v>2.2252299999999998</v>
+        <v>2.2258300000000002</v>
       </c>
       <c r="C355" s="0">
-        <v>33.000348385036119</v>
+        <v>32.985143038779412</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="0">
-        <v>176.977</v>
+        <v>177.03700000000001</v>
       </c>
       <c r="B356" s="0">
-        <v>2.2202299999999999</v>
+        <v>2.2208299999999999</v>
       </c>
       <c r="C356" s="0">
-        <v>32.853147682357154</v>
+        <v>32.83588534460192</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="0">
-        <v>177.477</v>
+        <v>177.53700000000001</v>
       </c>
       <c r="B357" s="0">
-        <v>2.21523</v>
+        <v>2.21583</v>
       </c>
       <c r="C357" s="0">
-        <v>32.69585427396494</v>
+        <v>32.675219700086018</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="0">
-        <v>177.977</v>
+        <v>178.03700000000001</v>
       </c>
       <c r="B358" s="0">
-        <v>2.2102300000000001</v>
+        <v>2.2108300000000001</v>
       </c>
       <c r="C358" s="0">
-        <v>32.532431828163055</v>
+        <v>32.513287461201905</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="0">
-        <v>178.477</v>
+        <v>178.53700000000001</v>
       </c>
       <c r="B359" s="0">
-        <v>2.2052300000000002</v>
+        <v>2.2058300000000002</v>
       </c>
       <c r="C359" s="0">
-        <v>32.392907334211678</v>
+        <v>32.372466998242416</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="0">
-        <v>178.977</v>
+        <v>179.03700000000001</v>
       </c>
       <c r="B360" s="0">
-        <v>2.2002299999999999</v>
+        <v>2.2008299999999998</v>
       </c>
       <c r="C360" s="0">
-        <v>32.229032458977116</v>
+        <v>32.213265397703907</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="0">
-        <v>179.477</v>
+        <v>179.53700000000001</v>
       </c>
       <c r="B361" s="0">
-        <v>2.19523</v>
+        <v>2.1958299999999999</v>
       </c>
       <c r="C361" s="0">
-        <v>32.074701401365424</v>
+        <v>32.060090497737562</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="0">
-        <v>179.977</v>
+        <v>180.03700000000001</v>
       </c>
       <c r="B362" s="0">
-        <v>2.1902300000000001</v>
+        <v>2.1908300000000001</v>
       </c>
       <c r="C362" s="0">
-        <v>31.920874356210319</v>
+        <v>31.897811226206947</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="0">
-        <v>180.477</v>
+        <v>180.53700000000001</v>
       </c>
       <c r="B363" s="0">
-        <v>2.1852300000000002</v>
+        <v>2.1858300000000002</v>
       </c>
       <c r="C363" s="0">
-        <v>31.76894127041162</v>
+        <v>31.749041546688609</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="0">
-        <v>180.977</v>
+        <v>181.03700000000001</v>
       </c>
       <c r="B364" s="0">
-        <v>2.1802299999999999</v>
+        <v>2.1808299999999998</v>
       </c>
       <c r="C364" s="0">
-        <v>31.618544975446152</v>
+        <v>31.600661157024799</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="0">
-        <v>181.477</v>
+        <v>181.53700000000001</v>
       </c>
       <c r="B365" s="0">
-        <v>2.17523</v>
+        <v>2.1758299999999999</v>
       </c>
       <c r="C365" s="0">
-        <v>31.466442288497618</v>
+        <v>31.449013499869125</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="0">
-        <v>181.977</v>
+        <v>182.03700000000001</v>
       </c>
       <c r="B366" s="0">
-        <v>2.1702300000000001</v>
+        <v>2.17083</v>
       </c>
       <c r="C366" s="0">
-        <v>31.321297879985618</v>
+        <v>31.301988332523095</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="0">
-        <v>182.477</v>
+        <v>182.53700000000001</v>
       </c>
       <c r="B367" s="0">
-        <v>2.1652300000000002</v>
+        <v>2.1658300000000001</v>
       </c>
       <c r="C367" s="0">
-        <v>31.166548888090386</v>
+        <v>31.150245316181149</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="0">
-        <v>182.977</v>
+        <v>183.03700000000001</v>
       </c>
       <c r="B368" s="0">
-        <v>2.1602299999999999</v>
+        <v>2.1608299999999998</v>
       </c>
       <c r="C368" s="0">
-        <v>31.017905537589321</v>
+        <v>31.002662204106066</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="0">
-        <v>183.477</v>
+        <v>183.53700000000001</v>
       </c>
       <c r="B369" s="0">
-        <v>2.15523</v>
+        <v>2.1558299999999999</v>
       </c>
       <c r="C369" s="0">
-        <v>30.86307222421846</v>
+        <v>30.841249392318915</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="0">
-        <v>183.977</v>
+        <v>184.03700000000001</v>
       </c>
       <c r="B370" s="0">
-        <v>2.1502300000000001</v>
+        <v>2.15083</v>
       </c>
       <c r="C370" s="0">
-        <v>30.712936000319392</v>
+        <v>30.693306533039156</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="0">
-        <v>184.477</v>
+        <v>184.53700000000001</v>
       </c>
       <c r="B371" s="0">
-        <v>2.1452300000000002</v>
+        <v>2.1458300000000001</v>
       </c>
       <c r="C371" s="0">
-        <v>30.569374775422197</v>
+        <v>30.552259451778166</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="0">
-        <v>184.977</v>
+        <v>185.03700000000001</v>
       </c>
       <c r="B372" s="0">
-        <v>2.1402299999999999</v>
+        <v>2.1408300000000002</v>
       </c>
       <c r="C372" s="0">
-        <v>30.411286381602579</v>
+        <v>30.393930294304635</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="0">
-        <v>185.477</v>
+        <v>185.53700000000001</v>
       </c>
       <c r="B373" s="0">
-        <v>2.13523</v>
+        <v>2.1358299999999999</v>
       </c>
       <c r="C373" s="0">
-        <v>30.259520421607377</v>
+        <v>30.245055906660188</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="0">
-        <v>185.977</v>
+        <v>186.03700000000001</v>
       </c>
       <c r="B374" s="0">
-        <v>2.1302300000000001</v>
+        <v>2.13083</v>
       </c>
       <c r="C374" s="0">
-        <v>30.119947698327142</v>
+        <v>30.100835795220824</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="0">
-        <v>186.477</v>
+        <v>186.53700000000001</v>
       </c>
       <c r="B375" s="0">
-        <v>2.1252300000000002</v>
+        <v>2.1258300000000001</v>
       </c>
       <c r="C375" s="0">
-        <v>29.969291012895749</v>
+        <v>29.951145058150406</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="0">
-        <v>186.977</v>
+        <v>187.03700000000001</v>
       </c>
       <c r="B376" s="0">
-        <v>2.1202300000000003</v>
+        <v>2.1208299999999998</v>
       </c>
       <c r="C376" s="0">
-        <v>29.815808999081721</v>
+        <v>29.798643281851838</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="0">
-        <v>187.477</v>
+        <v>187.53700000000001</v>
       </c>
       <c r="B377" s="0">
-        <v>2.1152299999999999</v>
+        <v>2.1158299999999999</v>
       </c>
       <c r="C377" s="0">
-        <v>29.666847207250367</v>
+        <v>29.648798848210621</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="0">
-        <v>187.977</v>
+        <v>188.03700000000001</v>
       </c>
       <c r="B378" s="0">
-        <v>2.1102300000000001</v>
+        <v>2.11083</v>
       </c>
       <c r="C378" s="0">
-        <v>29.518407713498618</v>
+        <v>29.49824576493026</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="0">
-        <v>188.477</v>
+        <v>188.53700000000001</v>
       </c>
       <c r="B379" s="0">
-        <v>2.1052300000000002</v>
+        <v>2.1058300000000001</v>
       </c>
       <c r="C379" s="0">
-        <v>29.372167365353132</v>
+        <v>29.354147563666288</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="0">
-        <v>188.977</v>
+        <v>189.03700000000001</v>
       </c>
       <c r="B380" s="0">
-        <v>2.1002299999999998</v>
+        <v>2.1008300000000002</v>
       </c>
       <c r="C380" s="0">
-        <v>29.230217271529522</v>
+        <v>29.212199992520848</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="0">
-        <v>189.477</v>
+        <v>189.53700000000001</v>
       </c>
       <c r="B381" s="0">
-        <v>2.0952299999999999</v>
+        <v>2.0958299999999999</v>
       </c>
       <c r="C381" s="0">
-        <v>29.077562662195064</v>
+        <v>29.059854904453843</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="0">
-        <v>189.977</v>
+        <v>190.03700000000001</v>
       </c>
       <c r="B382" s="0">
-        <v>2.09023</v>
+        <v>2.09083</v>
       </c>
       <c r="C382" s="0">
-        <v>28.928225575917274</v>
+        <v>28.908891963651328</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="0">
-        <v>190.477</v>
+        <v>190.53700000000001</v>
       </c>
       <c r="B383" s="0">
-        <v>2.0852300000000001</v>
+        <v>2.0858300000000001</v>
       </c>
       <c r="C383" s="0">
-        <v>28.775344592166721</v>
+        <v>28.75694140084515</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="0">
-        <v>190.977</v>
+        <v>191.03700000000001</v>
       </c>
       <c r="B384" s="0">
-        <v>2.0802300000000002</v>
+        <v>2.0808300000000002</v>
       </c>
       <c r="C384" s="0">
-        <v>28.632394777817701</v>
+        <v>28.612628173965074</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="0">
-        <v>191.477</v>
+        <v>191.53700000000001</v>
       </c>
       <c r="B385" s="0">
-        <v>2.0752299999999999</v>
+        <v>2.0758299999999998</v>
       </c>
       <c r="C385" s="0">
-        <v>28.489803808839376</v>
+        <v>28.472290864215999</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="0">
-        <v>191.977</v>
+        <v>192.03700000000001</v>
       </c>
       <c r="B386" s="0">
-        <v>2.07023</v>
+        <v>2.0708299999999999</v>
       </c>
       <c r="C386" s="0">
-        <v>28.341877590130547</v>
+        <v>28.32067835907408</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="0">
-        <v>192.477</v>
+        <v>192.53700000000001</v>
       </c>
       <c r="B387" s="0">
-        <v>2.0652300000000001</v>
+        <v>2.0658300000000001</v>
       </c>
       <c r="C387" s="0">
-        <v>28.191898031700401</v>
+        <v>28.176224898096557</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="0">
-        <v>192.977</v>
+        <v>193.03700000000001</v>
       </c>
       <c r="B388" s="0">
-        <v>2.0602300000000002</v>
+        <v>2.0608300000000002</v>
       </c>
       <c r="C388" s="0">
-        <v>28.044622988781079</v>
+        <v>28.026420103960216</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="0">
-        <v>193.477</v>
+        <v>193.53700000000001</v>
       </c>
       <c r="B389" s="0">
-        <v>2.0552299999999999</v>
+        <v>2.0558299999999998</v>
       </c>
       <c r="C389" s="0">
-        <v>27.89855623427955</v>
+        <v>27.880776709921097</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="0">
-        <v>193.977</v>
+        <v>194.03700000000001</v>
       </c>
       <c r="B390" s="0">
-        <v>2.05023</v>
+        <v>2.0508299999999999</v>
       </c>
       <c r="C390" s="0">
-        <v>27.747862019403517</v>
+        <v>27.732430724355869</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="0">
-        <v>194.477</v>
+        <v>194.53700000000001</v>
       </c>
       <c r="B391" s="0">
-        <v>2.0452300000000001</v>
+        <v>2.04583</v>
       </c>
       <c r="C391" s="0">
-        <v>27.604888489639475</v>
+        <v>27.584746643730607</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="0">
-        <v>194.977</v>
+        <v>195.03700000000001</v>
       </c>
       <c r="B392" s="0">
-        <v>2.0402300000000002</v>
+        <v>2.0408300000000001</v>
       </c>
       <c r="C392" s="0">
-        <v>27.453966542899344</v>
+        <v>27.432475225309453</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="0">
-        <v>195.477</v>
+        <v>195.53700000000001</v>
       </c>
       <c r="B393" s="0">
-        <v>2.0352299999999999</v>
+        <v>2.0358299999999998</v>
       </c>
       <c r="C393" s="0">
-        <v>27.314555036531321</v>
+        <v>27.300198571482003</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="0">
-        <v>195.977</v>
+        <v>196.03700000000001</v>
       </c>
       <c r="B394" s="0">
-        <v>2.03023</v>
+        <v>2.0308299999999999</v>
       </c>
       <c r="C394" s="0">
-        <v>27.151037170120173</v>
+        <v>27.131986088777538</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="0">
-        <v>196.477</v>
+        <v>196.53700000000001</v>
       </c>
       <c r="B395" s="0">
-        <v>2.0252300000000001</v>
+        <v>2.02583</v>
       </c>
       <c r="C395" s="0">
-        <v>27.002791072783165</v>
+        <v>26.982602744848741</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="0">
-        <v>196.977</v>
+        <v>197.03700000000001</v>
       </c>
       <c r="B396" s="0">
-        <v>2.0202300000000002</v>
+        <v>2.0208300000000001</v>
       </c>
       <c r="C396" s="0">
-        <v>26.867722361959512</v>
+        <v>26.85130174638196</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="0">
-        <v>197.477</v>
+        <v>197.53700000000001</v>
       </c>
       <c r="B397" s="0">
-        <v>2.0152299999999999</v>
+        <v>2.0158300000000002</v>
       </c>
       <c r="C397" s="0">
-        <v>26.716879865852185</v>
+        <v>26.696985901798744</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="0">
-        <v>197.977</v>
+        <v>198.03700000000001</v>
       </c>
       <c r="B398" s="0">
-        <v>2.01023</v>
+        <v>2.0108299999999999</v>
       </c>
       <c r="C398" s="0">
-        <v>26.562206252245772</v>
+        <v>26.545113870087132</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="0">
-        <v>198.477</v>
+        <v>198.53700000000001</v>
       </c>
       <c r="B399" s="0">
-        <v>2.0052300000000001</v>
+        <v>2.00583</v>
       </c>
       <c r="C399" s="0">
-        <v>26.418471034455216</v>
+        <v>26.397751392992042</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="0">
-        <v>198.977</v>
+        <v>199.03700000000001</v>
       </c>
       <c r="B400" s="0">
-        <v>2.0002300000000002</v>
+        <v>2.0008300000000001</v>
       </c>
       <c r="C400" s="0">
-        <v>26.265246696211118</v>
+        <v>26.243526420103965</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="0">
-        <v>199.477</v>
+        <v>199.53700000000001</v>
       </c>
       <c r="B401" s="0">
-        <v>1.9952300000000001</v>
+        <v>1.99583</v>
       </c>
       <c r="C401" s="0">
-        <v>26.115963828003348</v>
+        <v>26.09725066377473</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="0">
-        <v>199.977</v>
+        <v>200.03700000000001</v>
       </c>
       <c r="B402" s="0">
-        <v>1.9902299999999999</v>
+        <v>1.9908299999999999</v>
       </c>
       <c r="C402" s="0">
-        <v>25.9681791831357</v>
+        <v>25.95233386933922</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="0">
-        <v>200.477</v>
+        <v>200.53700000000001</v>
       </c>
       <c r="B403" s="0">
-        <v>1.9852300000000001</v>
+        <v>1.98583</v>
       </c>
       <c r="C403" s="0">
-        <v>25.826926657883174</v>
+        <v>25.807545716315772</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="0">
-        <v>200.977</v>
+        <v>201.03700000000001</v>
       </c>
       <c r="B404" s="0">
-        <v>1.9802300000000002</v>
+        <v>1.9808300000000001</v>
       </c>
       <c r="C404" s="0">
-        <v>25.673755739210279</v>
+        <v>25.656864365580951</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="0">
-        <v>201.477</v>
+        <v>201.53700000000001</v>
       </c>
       <c r="B405" s="0">
-        <v>1.97523</v>
+        <v>1.97583</v>
       </c>
       <c r="C405" s="0">
-        <v>25.53223124525891</v>
+        <v>25.5169275644142</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="0">
-        <v>201.977</v>
+        <v>202.03700000000001</v>
       </c>
       <c r="B406" s="0">
-        <v>1.9702299999999999</v>
+        <v>1.9708299999999999</v>
       </c>
       <c r="C406" s="0">
-        <v>25.380523974927137</v>
+        <v>25.367644815077973</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="0">
-        <v>202.477</v>
+        <v>202.53700000000001</v>
       </c>
       <c r="B407" s="0">
-        <v>1.96523</v>
+        <v>1.96583</v>
       </c>
       <c r="C407" s="0">
-        <v>25.226192198666496</v>
+        <v>25.209935679293974</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="0">
-        <v>202.977</v>
+        <v>203.03700000000001</v>
       </c>
       <c r="B408" s="0">
-        <v>1.9602300000000001</v>
+        <v>1.9608300000000001</v>
       </c>
       <c r="C408" s="0">
-        <v>25.078686788836983</v>
+        <v>25.063589992894808</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="0">
-        <v>203.477</v>
+        <v>203.53700000000001</v>
       </c>
       <c r="B409" s="0">
-        <v>1.95523</v>
+        <v>1.95583</v>
       </c>
       <c r="C409" s="0">
-        <v>24.93466267417255</v>
+        <v>24.916010620395653</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="0">
-        <v>203.977</v>
+        <v>204.03700000000001</v>
       </c>
       <c r="B410" s="0">
-        <v>1.9502299999999999</v>
+        <v>1.9508299999999998</v>
       </c>
       <c r="C410" s="0">
-        <v>24.784424162574361</v>
+        <v>24.768884110541865</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="0">
-        <v>204.477</v>
+        <v>204.53700000000001</v>
       </c>
       <c r="B411" s="0">
-        <v>1.94523</v>
+        <v>1.9458299999999999</v>
       </c>
       <c r="C411" s="0">
-        <v>24.635319279754057</v>
+        <v>24.615582064993834</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="0">
-        <v>204.977</v>
+        <v>205.03700000000001</v>
       </c>
       <c r="B412" s="0">
-        <v>1.9402300000000001</v>
+        <v>1.9408300000000001</v>
       </c>
       <c r="C412" s="0">
-        <v>24.484106200343355</v>
+        <v>24.467621255749602</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="0">
-        <v>205.477</v>
+        <v>205.53700000000001</v>
       </c>
       <c r="B413" s="0">
-        <v>1.93523</v>
+        <v>1.9358299999999999</v>
       </c>
       <c r="C413" s="0">
-        <v>24.340227332614681</v>
+        <v>24.323878688156771</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="0">
-        <v>205.977</v>
+        <v>206.03700000000001</v>
       </c>
       <c r="B414" s="0">
-        <v>1.9302299999999999</v>
+        <v>1.9308299999999998</v>
       </c>
       <c r="C414" s="0">
-        <v>24.183913123328139</v>
+        <v>24.166163943008868</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="0">
-        <v>206.477</v>
+        <v>206.53700000000001</v>
       </c>
       <c r="B415" s="0">
-        <v>1.92523</v>
+        <v>1.9258299999999999</v>
       </c>
       <c r="C415" s="0">
-        <v>24.036754980636399</v>
+        <v>24.019871732545528</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="0">
-        <v>206.977</v>
+        <v>207.03700000000001</v>
       </c>
       <c r="B416" s="0">
-        <v>1.9202300000000001</v>
+        <v>1.92083</v>
       </c>
       <c r="C416" s="0">
-        <v>23.897002834670818</v>
+        <v>23.876856886429085</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="0">
-        <v>207.477</v>
+        <v>207.53700000000001</v>
       </c>
       <c r="B417" s="0">
-        <v>1.9152300000000002</v>
+        <v>1.9158300000000001</v>
       </c>
       <c r="C417" s="0">
-        <v>23.743759651854504</v>
+        <v>23.722547399124942</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="0">
-        <v>207.977</v>
+        <v>208.03700000000001</v>
       </c>
       <c r="B418" s="0">
-        <v>1.9102300000000001</v>
+        <v>1.91083</v>
       </c>
       <c r="C418" s="0">
-        <v>23.58065405038527</v>
+        <v>23.564444859952879</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="0">
-        <v>208.477</v>
+        <v>208.53700000000001</v>
       </c>
       <c r="B419" s="0">
-        <v>1.90523</v>
+        <v>1.9058299999999999</v>
       </c>
       <c r="C419" s="0">
-        <v>23.439232003832796</v>
+        <v>23.424017426423838</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="0">
-        <v>208.977</v>
+        <v>209.03700000000001</v>
       </c>
       <c r="B420" s="0">
-        <v>1.9002300000000001</v>
+        <v>1.90083</v>
       </c>
       <c r="C420" s="0">
-        <v>23.286508883299394</v>
+        <v>23.267398750981641</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="0">
-        <v>209.477</v>
+        <v>209.53700000000001</v>
       </c>
       <c r="B421" s="0">
-        <v>1.8952300000000002</v>
+        <v>1.8958300000000001</v>
       </c>
       <c r="C421" s="0">
-        <v>23.132847127400481</v>
+        <v>23.117951834261998</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="0">
-        <v>209.977</v>
+        <v>210.03700000000001</v>
       </c>
       <c r="B422" s="0">
-        <v>1.8902300000000001</v>
+        <v>1.89083</v>
       </c>
       <c r="C422" s="0">
-        <v>22.987646105321993</v>
+        <v>22.970314872293486</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="0">
-        <v>210.477</v>
+        <v>210.53700000000001</v>
       </c>
       <c r="B423" s="0">
-        <v>1.88523</v>
+        <v>1.8858299999999999</v>
       </c>
       <c r="C423" s="0">
-        <v>22.834539465804284</v>
+        <v>22.817134362963241</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="0">
-        <v>210.977</v>
+        <v>211.03700000000001</v>
       </c>
       <c r="B424" s="0">
-        <v>1.8802300000000001</v>
+        <v>1.88083</v>
       </c>
       <c r="C424" s="0">
-        <v>22.68956242264542</v>
+        <v>22.670412475225316</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="0">
-        <v>211.477</v>
+        <v>211.53700000000001</v>
       </c>
       <c r="B425" s="0">
-        <v>1.8752300000000002</v>
+        <v>1.8758300000000001</v>
       </c>
       <c r="C425" s="0">
-        <v>22.538278676088947</v>
+        <v>22.519587898732286</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="0">
-        <v>211.977</v>
+        <v>212.03700000000001</v>
       </c>
       <c r="B426" s="0">
-        <v>1.8702300000000001</v>
+        <v>1.87083</v>
       </c>
       <c r="C426" s="0">
-        <v>22.38081910009182</v>
+        <v>22.361378407688573</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="0">
-        <v>212.477</v>
+        <v>212.53700000000001</v>
       </c>
       <c r="B427" s="0">
-        <v>1.8652299999999999</v>
+        <v>1.8658299999999999</v>
       </c>
       <c r="C427" s="0">
-        <v>22.226653092186684</v>
+        <v>22.207452974832652</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="0">
-        <v>212.977</v>
+        <v>213.03700000000001</v>
       </c>
       <c r="B428" s="0">
-        <v>1.8602300000000001</v>
+        <v>1.86083</v>
       </c>
       <c r="C428" s="0">
-        <v>22.069426997245174</v>
+        <v>22.051996933547741</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="0">
-        <v>213.477</v>
+        <v>213.53700000000001</v>
       </c>
       <c r="B429" s="0">
-        <v>1.8552300000000002</v>
+        <v>1.8558300000000001</v>
       </c>
       <c r="C429" s="0">
-        <v>21.925559947299071</v>
+        <v>21.904365954900719</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="0">
-        <v>213.977</v>
+        <v>214.03700000000001</v>
       </c>
       <c r="B430" s="0">
-        <v>1.85023</v>
+        <v>1.85083</v>
       </c>
       <c r="C430" s="0">
-        <v>21.770169281750302</v>
+        <v>21.75705022250477</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="0">
-        <v>214.477</v>
+        <v>214.53700000000001</v>
       </c>
       <c r="B431" s="0">
-        <v>1.8452299999999999</v>
+        <v>1.8458299999999999</v>
       </c>
       <c r="C431" s="0">
-        <v>21.625456142452183</v>
+        <v>21.609009012377996</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="0">
-        <v>214.977</v>
+        <v>215.03700000000001</v>
       </c>
       <c r="B432" s="0">
-        <v>1.84023</v>
+        <v>1.84083</v>
       </c>
       <c r="C432" s="0">
-        <v>21.465362797939868</v>
+        <v>21.446266407389405</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="0">
-        <v>215.477</v>
+        <v>215.53700000000001</v>
       </c>
       <c r="B433" s="0">
-        <v>1.8352300000000001</v>
+        <v>1.8358300000000001</v>
       </c>
       <c r="C433" s="0">
-        <v>21.317681159420285</v>
+        <v>21.301388504543585</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="0">
-        <v>215.977</v>
+        <v>216.03700000000001</v>
       </c>
       <c r="B434" s="0">
-        <v>1.83023</v>
+        <v>1.83083</v>
       </c>
       <c r="C434" s="0">
-        <v>21.155764921946734</v>
+        <v>21.136479937175125</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="0">
-        <v>216.477</v>
+        <v>216.53700000000001</v>
       </c>
       <c r="B435" s="0">
-        <v>1.8252299999999999</v>
+        <v>1.8258299999999998</v>
       </c>
       <c r="C435" s="0">
-        <v>21.002773585658957</v>
+        <v>20.98526233125164</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="0">
-        <v>216.977</v>
+        <v>217.03700000000001</v>
       </c>
       <c r="B436" s="0">
-        <v>1.82023</v>
+        <v>1.8208299999999999</v>
       </c>
       <c r="C436" s="0">
-        <v>20.854197788158263</v>
+        <v>20.835766052129692</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="0">
-        <v>217.477</v>
+        <v>217.53700000000001</v>
       </c>
       <c r="B437" s="0">
-        <v>1.8152300000000001</v>
+        <v>1.8158300000000001</v>
       </c>
       <c r="C437" s="0">
-        <v>20.697132431029662</v>
+        <v>20.675819528065521</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="0">
-        <v>217.977</v>
+        <v>218.03700000000001</v>
       </c>
       <c r="B438" s="0">
-        <v>1.81023</v>
+        <v>1.8108299999999999</v>
       </c>
       <c r="C438" s="0">
-        <v>20.536302311654083</v>
+        <v>20.517323959462999</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="0">
-        <v>218.477</v>
+        <v>218.53700000000001</v>
       </c>
       <c r="B439" s="0">
-        <v>1.8052299999999999</v>
+        <v>1.8058299999999998</v>
       </c>
       <c r="C439" s="0">
-        <v>20.378925619834703</v>
+        <v>20.358724056691976</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="0">
-        <v>218.977</v>
+        <v>219.03700000000001</v>
       </c>
       <c r="B440" s="0">
-        <v>1.80023</v>
+        <v>1.8008299999999999</v>
       </c>
       <c r="C440" s="0">
-        <v>20.227280472711296</v>
+        <v>20.208129838076363</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="0">
-        <v>219.477</v>
+        <v>219.53700000000001</v>
       </c>
       <c r="B441" s="0">
-        <v>1.7952300000000001</v>
+        <v>1.79583</v>
       </c>
       <c r="C441" s="0">
-        <v>20.075369904579386</v>
+        <v>20.05772858157885</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="0">
-        <v>219.977</v>
+        <v>220.03700000000001</v>
       </c>
       <c r="B442" s="0">
-        <v>1.7902300000000002</v>
+        <v>1.7908300000000001</v>
       </c>
       <c r="C442" s="0">
-        <v>19.914026350461132</v>
+        <v>19.896537152686886</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="0">
-        <v>220.477</v>
+        <v>220.53700000000001</v>
       </c>
       <c r="B443" s="0">
-        <v>1.7852300000000001</v>
+        <v>1.78583</v>
       </c>
       <c r="C443" s="0">
-        <v>19.757410867568961</v>
+        <v>19.738727796267909</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="0">
-        <v>220.977</v>
+        <v>221.03700000000001</v>
       </c>
       <c r="B444" s="0">
-        <v>1.78023</v>
+        <v>1.7808299999999999</v>
       </c>
       <c r="C444" s="0">
-        <v>19.60261157024793</v>
+        <v>19.585241015668828</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="0">
-        <v>221.477</v>
+        <v>221.53700000000001</v>
       </c>
       <c r="B445" s="0">
-        <v>1.7752300000000001</v>
+        <v>1.77583</v>
       </c>
       <c r="C445" s="0">
-        <v>19.4336442687747</v>
+        <v>19.415588796230512</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="0">
-        <v>221.977</v>
+        <v>222.03700000000001</v>
       </c>
       <c r="B446" s="0">
-        <v>1.7702300000000002</v>
+        <v>1.7708300000000001</v>
       </c>
       <c r="C446" s="0">
-        <v>19.279024074739485</v>
+        <v>19.258402827119411</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="0">
-        <v>222.477</v>
+        <v>222.53700000000001</v>
       </c>
       <c r="B447" s="0">
-        <v>1.7652300000000001</v>
+        <v>1.76583</v>
       </c>
       <c r="C447" s="0">
-        <v>19.117817223619589</v>
+        <v>19.097019557982126</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="0">
-        <v>222.977</v>
+        <v>223.03700000000001</v>
       </c>
       <c r="B448" s="0">
-        <v>1.76023</v>
+        <v>1.7608299999999999</v>
       </c>
       <c r="C448" s="0">
-        <v>18.954755779135223</v>
+        <v>18.934560412849184</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="0">
-        <v>223.477</v>
+        <v>223.53700000000001</v>
       </c>
       <c r="B449" s="0">
-        <v>1.7552300000000001</v>
+        <v>1.75583</v>
       </c>
       <c r="C449" s="0">
-        <v>18.804870762965624</v>
+        <v>18.783923189110357</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="0">
-        <v>223.977</v>
+        <v>224.03700000000001</v>
       </c>
       <c r="B450" s="0">
-        <v>1.7502300000000002</v>
+        <v>1.7508300000000001</v>
       </c>
       <c r="C450" s="0">
-        <v>18.638273086597192</v>
+        <v>18.619026588384884</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="0">
-        <v>224.477</v>
+        <v>224.53700000000001</v>
       </c>
       <c r="B451" s="0">
-        <v>1.7452300000000001</v>
+        <v>1.74583</v>
       </c>
       <c r="C451" s="0">
-        <v>18.479307142571962</v>
+        <v>18.458863542874241</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="0">
-        <v>224.977</v>
+        <v>225.03700000000001</v>
       </c>
       <c r="B452" s="0">
-        <v>1.7402299999999999</v>
+        <v>1.7408299999999999</v>
       </c>
       <c r="C452" s="0">
-        <v>18.321852197868004</v>
+        <v>18.299437567779819</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="0">
-        <v>225.477</v>
+        <v>225.53700000000001</v>
       </c>
       <c r="B453" s="0">
-        <v>1.7352300000000001</v>
+        <v>1.73583</v>
       </c>
       <c r="C453" s="0">
-        <v>18.153645147123406</v>
+        <v>18.137095845331142</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="0">
-        <v>225.977</v>
+        <v>226.03700000000001</v>
       </c>
       <c r="B454" s="0">
-        <v>1.7302300000000002</v>
+        <v>1.7308300000000001</v>
       </c>
       <c r="C454" s="0">
-        <v>17.993698806244257</v>
+        <v>17.971154033132649</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="0">
-        <v>226.477</v>
+        <v>226.53700000000001</v>
       </c>
       <c r="B455" s="0">
-        <v>1.72523</v>
+        <v>1.72583</v>
       </c>
       <c r="C455" s="0">
-        <v>17.831738970735017</v>
+        <v>17.811301746381961</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="0">
-        <v>226.977</v>
+        <v>227.03700000000001</v>
       </c>
       <c r="B456" s="0">
-        <v>1.7202299999999999</v>
+        <v>1.7208299999999999</v>
       </c>
       <c r="C456" s="0">
-        <v>17.665031660478295</v>
+        <v>17.643222018623092</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="0">
-        <v>227.477</v>
+        <v>227.53700000000001</v>
       </c>
       <c r="B457" s="0">
-        <v>1.71523</v>
+        <v>1.71583</v>
       </c>
       <c r="C457" s="0">
-        <v>17.497796382800331</v>
+        <v>17.474159156351668</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="0">
-        <v>227.977</v>
+        <v>228.03700000000001</v>
       </c>
       <c r="B458" s="0">
-        <v>1.7102300000000001</v>
+        <v>1.7108300000000001</v>
       </c>
       <c r="C458" s="0">
-        <v>17.334219587176104</v>
+        <v>17.317056579783852</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="0">
-        <v>228.477</v>
+        <v>228.53700000000001</v>
       </c>
       <c r="B459" s="0">
-        <v>1.70523</v>
+        <v>1.70583</v>
       </c>
       <c r="C459" s="0">
-        <v>17.174147482732455</v>
+        <v>17.153546987771591</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="0">
-        <v>228.977</v>
+        <v>229.03700000000001</v>
       </c>
       <c r="B460" s="0">
-        <v>1.7002299999999999</v>
+        <v>1.7008299999999998</v>
       </c>
       <c r="C460" s="0">
-        <v>17.013180740208405</v>
+        <v>16.993230619647733</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="0">
-        <v>229.477</v>
+        <v>229.53700000000001</v>
       </c>
       <c r="B461" s="0">
-        <v>1.69523</v>
+        <v>1.6958299999999999</v>
       </c>
       <c r="C461" s="0">
-        <v>16.838892482133584</v>
+        <v>16.819564339403911</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="0">
-        <v>229.977</v>
+        <v>230.03700000000001</v>
       </c>
       <c r="B462" s="0">
-        <v>1.6902300000000001</v>
+        <v>1.6908300000000001</v>
       </c>
       <c r="C462" s="0">
-        <v>16.675224897193278</v>
+        <v>16.657001608017655</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="0">
-        <v>230.477</v>
+        <v>230.53700000000001</v>
       </c>
       <c r="B463" s="0">
-        <v>1.68523</v>
+        <v>1.6858299999999999</v>
       </c>
       <c r="C463" s="0">
-        <v>16.501201421327899</v>
+        <v>16.476558094312107</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="0">
-        <v>230.977</v>
+        <v>231.03700000000001</v>
       </c>
       <c r="B464" s="0">
-        <v>1.6802299999999999</v>
+        <v>1.6808299999999998</v>
       </c>
       <c r="C464" s="0">
-        <v>16.346099333253481</v>
+        <v>16.325413784076886</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="0">
-        <v>231.477</v>
+        <v>231.53700000000001</v>
       </c>
       <c r="B465" s="0">
-        <v>1.67523</v>
+        <v>1.6758299999999999</v>
       </c>
       <c r="C465" s="0">
-        <v>16.169036291771466</v>
+        <v>16.149055383119556</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="0">
-        <v>231.977</v>
+        <v>232.03700000000001</v>
       </c>
       <c r="B466" s="0">
-        <v>1.6702300000000001</v>
+        <v>1.67083</v>
       </c>
       <c r="C466" s="0">
-        <v>16.000080648381044</v>
+        <v>15.978096929808162</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="0">
-        <v>232.477</v>
+        <v>232.53700000000001</v>
       </c>
       <c r="B467" s="0">
-        <v>1.6652300000000002</v>
+        <v>1.6658300000000001</v>
       </c>
       <c r="C467" s="0">
-        <v>15.827187926697805</v>
+        <v>15.806995250738566</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="0">
-        <v>232.977</v>
+        <v>233.03700000000001</v>
       </c>
       <c r="B468" s="0">
-        <v>1.6602300000000001</v>
+        <v>1.66083</v>
       </c>
       <c r="C468" s="0">
-        <v>15.662703557312248</v>
+        <v>15.639112598631318</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="0">
-        <v>233.477</v>
+        <v>233.53700000000001</v>
       </c>
       <c r="B469" s="0">
-        <v>1.65523</v>
+        <v>1.6558299999999999</v>
       </c>
       <c r="C469" s="0">
-        <v>15.491689383958153</v>
+        <v>15.473098612617331</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="0">
-        <v>233.977</v>
+        <v>234.03700000000001</v>
       </c>
       <c r="B470" s="0">
-        <v>1.6502300000000001</v>
+        <v>1.65083</v>
       </c>
       <c r="C470" s="0">
-        <v>15.313998562702114</v>
+        <v>15.29459219924461</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="0">
-        <v>234.477</v>
+        <v>234.53700000000001</v>
       </c>
       <c r="B471" s="0">
-        <v>1.6452300000000002</v>
+        <v>1.6458300000000001</v>
       </c>
       <c r="C471" s="0">
-        <v>15.14895875753583</v>
+        <v>15.126458247634721</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="0">
-        <v>234.977</v>
+        <v>235.03700000000001</v>
       </c>
       <c r="B472" s="0">
-        <v>1.6402300000000001</v>
+        <v>1.64083</v>
       </c>
       <c r="C472" s="0">
-        <v>14.971737772986781</v>
+        <v>14.952228787255528</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="0">
-        <v>235.477</v>
+        <v>235.53700000000001</v>
       </c>
       <c r="B473" s="0">
-        <v>1.63523</v>
+        <v>1.6358299999999999</v>
       </c>
       <c r="C473" s="0">
-        <v>14.79660150916277</v>
+        <v>14.774555551400473</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="0">
-        <v>235.977</v>
+        <v>236.03700000000001</v>
       </c>
       <c r="B474" s="0">
-        <v>1.6302300000000001</v>
+        <v>1.63083</v>
       </c>
       <c r="C474" s="0">
-        <v>14.624905337964622</v>
+        <v>14.604646423095625</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="0">
-        <v>236.477</v>
+        <v>236.53700000000001</v>
       </c>
       <c r="B475" s="0">
-        <v>1.6252300000000002</v>
+        <v>1.6258300000000001</v>
       </c>
       <c r="C475" s="0">
-        <v>14.448108515989935</v>
+        <v>14.425552896301562</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="0">
-        <v>236.977</v>
+        <v>237.03700000000001</v>
       </c>
       <c r="B476" s="0">
-        <v>1.6202300000000001</v>
+        <v>1.62083</v>
       </c>
       <c r="C476" s="0">
-        <v>14.276202020202016</v>
+        <v>14.252980442017877</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="0">
-        <v>237.477</v>
+        <v>237.53700000000001</v>
       </c>
       <c r="B477" s="0">
-        <v>1.6152299999999999</v>
+        <v>1.6158299999999999</v>
       </c>
       <c r="C477" s="0">
-        <v>14.098600870363715</v>
+        <v>14.072956134774318</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="0">
-        <v>237.977</v>
+        <v>238.03700000000001</v>
       </c>
       <c r="B478" s="0">
-        <v>1.6102300000000001</v>
+        <v>1.61083</v>
       </c>
       <c r="C478" s="0">
-        <v>13.918591607777376</v>
+        <v>13.894182715680042</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="0">
-        <v>238.477</v>
+        <v>238.53700000000001</v>
       </c>
       <c r="B479" s="0">
-        <v>1.6052300000000002</v>
+        <v>1.6058300000000001</v>
       </c>
       <c r="C479" s="0">
-        <v>13.732944384557033</v>
+        <v>13.713879436071952</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="0">
-        <v>238.977</v>
+        <v>239.03700000000001</v>
       </c>
       <c r="B480" s="0">
-        <v>1.60023</v>
+        <v>1.60083</v>
       </c>
       <c r="C480" s="0">
-        <v>13.569111270810874</v>
+        <v>13.546595116113833</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="0">
-        <v>239.477</v>
+        <v>239.53700000000001</v>
       </c>
       <c r="B481" s="0">
-        <v>1.5952299999999999</v>
+        <v>1.5958299999999999</v>
       </c>
       <c r="C481" s="0">
-        <v>13.378192597915916</v>
+        <v>13.359794323323735</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="0">
-        <v>239.977</v>
+        <v>240.03700000000001</v>
       </c>
       <c r="B482" s="0">
-        <v>1.59023</v>
+        <v>1.59083</v>
       </c>
       <c r="C482" s="0">
-        <v>13.205415498862134</v>
+        <v>13.183920197449613</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="0">
-        <v>240.477</v>
+        <v>240.53700000000001</v>
       </c>
       <c r="B483" s="0">
-        <v>1.5852300000000001</v>
+        <v>1.5858300000000001</v>
       </c>
       <c r="C483" s="0">
-        <v>13.00787790953008</v>
+        <v>12.983603829325757</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="0">
-        <v>240.977</v>
+        <v>241.03700000000001</v>
       </c>
       <c r="B484" s="0">
-        <v>1.58023</v>
+        <v>1.58083</v>
       </c>
       <c r="C484" s="0">
-        <v>12.836933445123165</v>
+        <v>12.816782842825624</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="0">
-        <v>241.477</v>
+        <v>241.53700000000001</v>
       </c>
       <c r="B485" s="0">
-        <v>1.5752299999999999</v>
+        <v>1.5758299999999998</v>
       </c>
       <c r="C485" s="0">
-        <v>12.65372284105881</v>
+        <v>12.632061254253767</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="0">
-        <v>241.977</v>
+        <v>242.03700000000001</v>
       </c>
       <c r="B486" s="0">
-        <v>1.57023</v>
+        <v>1.5708299999999999</v>
       </c>
       <c r="C486" s="0">
-        <v>12.469139936918589</v>
+        <v>12.445657604427661</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="0">
-        <v>242.477</v>
+        <v>242.53700000000001</v>
       </c>
       <c r="B487" s="0">
-        <v>1.5652300000000001</v>
+        <v>1.5658300000000001</v>
       </c>
       <c r="C487" s="0">
-        <v>12.287042839461808</v>
+        <v>12.26860027672862</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="0">
-        <v>242.977</v>
+        <v>243.03700000000001</v>
       </c>
       <c r="B488" s="0">
-        <v>1.56023</v>
+        <v>1.5608299999999999</v>
       </c>
       <c r="C488" s="0">
-        <v>12.095704874835308</v>
+        <v>12.068160128641413</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="0">
-        <v>243.477</v>
+        <v>243.53700000000001</v>
       </c>
       <c r="B489" s="0">
-        <v>1.5552299999999999</v>
+        <v>1.5558299999999998</v>
       </c>
       <c r="C489" s="0">
-        <v>11.905987703118136</v>
+        <v>11.885804943719382</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="0">
-        <v>243.977</v>
+        <v>244.03700000000001</v>
       </c>
       <c r="B490" s="0">
-        <v>1.55023</v>
+        <v>1.5508299999999999</v>
       </c>
       <c r="C490" s="0">
-        <v>11.719408072823093</v>
+        <v>11.695168467895744</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="0">
-        <v>244.477</v>
+        <v>244.53700000000001</v>
       </c>
       <c r="B491" s="0">
-        <v>1.5452300000000001</v>
+        <v>1.54583</v>
       </c>
       <c r="C491" s="0">
-        <v>11.534106280193235</v>
+        <v>11.511090460341796</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="0">
-        <v>244.977</v>
+        <v>245.03700000000001</v>
       </c>
       <c r="B492" s="0">
-        <v>1.5402300000000002</v>
+        <v>1.5408300000000001</v>
       </c>
       <c r="C492" s="0">
-        <v>11.349671816984065</v>
+        <v>11.325613477431661</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="0">
-        <v>245.477</v>
+        <v>245.53700000000001</v>
       </c>
       <c r="B493" s="0">
-        <v>1.5352300000000001</v>
+        <v>1.53583</v>
       </c>
       <c r="C493" s="0">
-        <v>11.151111510360519</v>
+        <v>11.127970532141656</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="0">
-        <v>245.977</v>
+        <v>246.03700000000001</v>
       </c>
       <c r="B494" s="0">
-        <v>1.53023</v>
+        <v>1.5308299999999999</v>
       </c>
       <c r="C494" s="0">
-        <v>10.959433624785401</v>
+        <v>10.934942597509442</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="0">
-        <v>246.477</v>
+        <v>246.53700000000001</v>
       </c>
       <c r="B495" s="0">
-        <v>1.5252300000000001</v>
+        <v>1.52583</v>
       </c>
       <c r="C495" s="0">
-        <v>10.762036251846526</v>
+        <v>10.74301895964998</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="0">
-        <v>246.977</v>
+        <v>247.03700000000001</v>
       </c>
       <c r="B496" s="0">
-        <v>1.5202300000000002</v>
+        <v>1.5208300000000001</v>
       </c>
       <c r="C496" s="0">
-        <v>10.569765720445561</v>
+        <v>10.547859840694066</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="0">
-        <v>247.477</v>
+        <v>247.53700000000001</v>
       </c>
       <c r="B497" s="0">
-        <v>1.5152300000000001</v>
+        <v>1.51583</v>
       </c>
       <c r="C497" s="0">
-        <v>10.37930019563221</v>
+        <v>10.354302756067463</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="0">
-        <v>247.977</v>
+        <v>248.03700000000001</v>
       </c>
       <c r="B498" s="0">
-        <v>1.51023</v>
+        <v>1.5108299999999999</v>
       </c>
       <c r="C498" s="0">
-        <v>10.183841098734376</v>
+        <v>10.161601660371716</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="0">
-        <v>248.477</v>
+        <v>248.53700000000001</v>
       </c>
       <c r="B499" s="0">
-        <v>1.5052300000000001</v>
+        <v>1.50583</v>
       </c>
       <c r="C499" s="0">
-        <v>9.9851510360522209</v>
+        <v>9.9655480348528496</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="0">
-        <v>248.977</v>
+        <v>249.03700000000001</v>
       </c>
       <c r="B500" s="0">
-        <v>1.5002300000000002</v>
+        <v>1.5008300000000001</v>
       </c>
       <c r="C500" s="0">
-        <v>9.7890065876152796</v>
+        <v>9.7627452226917502</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="0">
-        <v>249.477</v>
+        <v>249.53700000000001</v>
       </c>
       <c r="B501" s="0">
-        <v>1.4952300000000001</v>
+        <v>1.49583</v>
       </c>
       <c r="C501" s="0">
-        <v>9.5896136064199275</v>
+        <v>9.5646916719644004</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="0">
-        <v>249.977</v>
+        <v>250.03700000000001</v>
       </c>
       <c r="B502" s="0">
-        <v>1.4902299999999999</v>
+        <v>1.4908299999999999</v>
       </c>
       <c r="C502" s="0">
-        <v>9.3878014931927947</v>
+        <v>9.3620477917804159</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="0">
-        <v>250.477</v>
+        <v>250.53700000000001</v>
       </c>
       <c r="B503" s="0">
-        <v>1.4852300000000001</v>
+        <v>1.48583</v>
       </c>
       <c r="C503" s="0">
-        <v>9.1923572483730549</v>
+        <v>9.1673707041621491</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="0">
-        <v>250.977</v>
+        <v>251.03700000000001</v>
       </c>
       <c r="B504" s="0">
-        <v>1.4802300000000002</v>
+        <v>1.4808300000000001</v>
       </c>
       <c r="C504" s="0">
-        <v>8.988713538547529</v>
+        <v>8.9651310721364208</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="0">
-        <v>251.477</v>
+        <v>251.53700000000001</v>
       </c>
       <c r="B505" s="0">
-        <v>1.47523</v>
+        <v>1.47583</v>
       </c>
       <c r="C505" s="0">
-        <v>8.7831733141693604</v>
+        <v>8.7630795407800779</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="0">
-        <v>251.977</v>
+        <v>252.03700000000001</v>
       </c>
       <c r="B506" s="0">
-        <v>1.4702300000000001</v>
+        <v>1.4708300000000001</v>
       </c>
       <c r="C506" s="0">
-        <v>8.5822068910448337</v>
+        <v>8.5591208256983666</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="0">
-        <v>252.477</v>
+        <v>252.53700000000001</v>
       </c>
       <c r="B507" s="0">
-        <v>1.46523</v>
+        <v>1.46583</v>
       </c>
       <c r="C507" s="0">
-        <v>8.3668724398131502</v>
+        <v>8.3419053139374011</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="0">
-        <v>252.977</v>
+        <v>253.03700000000001</v>
       </c>
       <c r="B508" s="0">
-        <v>1.4602300000000001</v>
+        <v>1.4608300000000001</v>
       </c>
       <c r="C508" s="0">
-        <v>8.1690167285503232</v>
+        <v>8.1423080662652882</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="0">
-        <v>253.477</v>
+        <v>253.53700000000001</v>
       </c>
       <c r="B509" s="0">
-        <v>1.45523</v>
+        <v>1.45583</v>
       </c>
       <c r="C509" s="0">
-        <v>7.9597242783566884</v>
+        <v>7.934271343629633</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="0">
-        <v>253.977</v>
+        <v>254.03700000000001</v>
       </c>
       <c r="B510" s="0">
-        <v>1.4502300000000001</v>
+        <v>1.4508300000000001</v>
       </c>
       <c r="C510" s="0">
-        <v>7.7506622749231413</v>
+        <v>7.7263658801091966</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="0">
-        <v>254.477</v>
+        <v>254.53700000000001</v>
       </c>
       <c r="B511" s="0">
-        <v>1.44523</v>
+        <v>1.4458299999999999</v>
       </c>
       <c r="C511" s="0">
-        <v>7.5404152992374325</v>
+        <v>7.5148483601959546</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="0">
-        <v>254.977</v>
+        <v>255.03700000000001</v>
       </c>
       <c r="B512" s="0">
-        <v>1.4402300000000001</v>
+        <v>1.4408300000000001</v>
       </c>
       <c r="C512" s="0">
-        <v>7.3290758174631678</v>
+        <v>7.3079652967353521</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="0">
-        <v>255.477</v>
+        <v>255.53700000000001</v>
       </c>
       <c r="B513" s="0">
-        <v>1.43523</v>
+        <v>1.4358299999999999</v>
       </c>
       <c r="C513" s="0">
-        <v>7.1191173394019236</v>
+        <v>7.0924299764406724</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="0">
-        <v>255.977</v>
+        <v>256.03699999999998</v>
       </c>
       <c r="B514" s="0">
-        <v>1.4302300000000001</v>
+        <v>1.4308300000000003</v>
       </c>
       <c r="C514" s="0">
-        <v>6.9017442408272434</v>
+        <v>6.8768288396095905</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="0">
-        <v>256.47699999999998</v>
+        <v>256.53699999999998</v>
       </c>
       <c r="B515" s="0">
-        <v>1.4252300000000002</v>
+        <v>1.4258300000000002</v>
       </c>
       <c r="C515" s="0">
-        <v>6.6763301792629841</v>
+        <v>6.652661830148463</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="0">
-        <v>256.97699999999998</v>
+        <v>257.03699999999998</v>
       </c>
       <c r="B516" s="0">
-        <v>1.4202300000000003</v>
+        <v>1.4208300000000003</v>
       </c>
       <c r="C516" s="0">
-        <v>6.4688724398131505</v>
+        <v>6.4400972289742349</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="0">
-        <v>257.47699999999998</v>
+        <v>257.53699999999998</v>
       </c>
       <c r="B517" s="0">
-        <v>1.4152300000000004</v>
+        <v>1.4158300000000004</v>
       </c>
       <c r="C517" s="0">
-        <v>6.2546478220944612</v>
+        <v>6.2280756142253484</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="0">
-        <v>257.97699999999998</v>
+        <v>258.03699999999998</v>
       </c>
       <c r="B518" s="0">
-        <v>1.4102300000000003</v>
+        <v>1.4108300000000003</v>
       </c>
       <c r="C518" s="0">
-        <v>6.0323606819179938</v>
+        <v>6.0071182827867329</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="0">
-        <v>258.47699999999998</v>
+        <v>258.53699999999998</v>
       </c>
       <c r="B519" s="0">
-        <v>1.4052300000000004</v>
+        <v>1.4058300000000004</v>
       </c>
       <c r="C519" s="0">
-        <v>5.8062591927176914</v>
+        <v>5.7783953479675407</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="0">
-        <v>258.97699999999998</v>
+        <v>259.03699999999998</v>
       </c>
       <c r="B520" s="0">
-        <v>1.4002300000000003</v>
+        <v>1.4008300000000002</v>
       </c>
       <c r="C520" s="0">
-        <v>5.5879421088353878</v>
+        <v>5.5580195205863667</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="0">
-        <v>259.47699999999998</v>
+        <v>259.53699999999998</v>
       </c>
       <c r="B521" s="0">
-        <v>1.3952300000000004</v>
+        <v>1.3958300000000003</v>
       </c>
       <c r="C521" s="0">
-        <v>5.357282389108474</v>
+        <v>5.3310366104483755</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="0">
-        <v>259.97699999999998</v>
+        <v>260.03699999999998</v>
       </c>
       <c r="B522" s="0">
-        <v>1.3902300000000003</v>
+        <v>1.3908300000000002</v>
       </c>
       <c r="C522" s="0">
-        <v>5.1393829999600742</v>
+        <v>5.1121988706480685</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="0">
-        <v>260.47699999999998</v>
+        <v>260.53699999999998</v>
       </c>
       <c r="B523" s="0">
-        <v>1.3852300000000004</v>
+        <v>1.3858300000000003</v>
       </c>
       <c r="C523" s="0">
-        <v>4.9014115862179102</v>
+        <v>4.875300100968551</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="0">
-        <v>260.97699999999998</v>
+        <v>261.03699999999998</v>
       </c>
       <c r="B524" s="0">
-        <v>1.3802300000000003</v>
+        <v>1.3808300000000002</v>
       </c>
       <c r="C524" s="0">
-        <v>4.6817448796263017</v>
+        <v>4.656717400246813</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="0">
-        <v>261.47699999999998</v>
+        <v>261.53699999999998</v>
       </c>
       <c r="B525" s="0">
-        <v>1.3752300000000004</v>
+        <v>1.3758300000000003</v>
       </c>
       <c r="C525" s="0">
-        <v>4.4471702000239555</v>
+        <v>4.4199626042406805</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="0">
-        <v>261.97699999999998</v>
+        <v>262.03699999999998</v>
       </c>
       <c r="B526" s="0">
-        <v>1.3702300000000003</v>
+        <v>1.3708300000000002</v>
       </c>
       <c r="C526" s="0">
-        <v>4.2132128398610611</v>
+        <v>4.1869716914101947</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="0">
-        <v>262.47699999999998</v>
+        <v>262.53699999999998</v>
       </c>
       <c r="B527" s="0">
-        <v>1.3652300000000004</v>
+        <v>1.3658300000000003</v>
       </c>
       <c r="C527" s="0">
-        <v>3.979206930969776</v>
+        <v>3.9508537451852961</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="0">
-        <v>262.97699999999998</v>
+        <v>263.03699999999998</v>
       </c>
       <c r="B528" s="0">
-        <v>1.3602300000000003</v>
+        <v>1.3608300000000002</v>
       </c>
       <c r="C528" s="0">
-        <v>3.7423308979119247</v>
+        <v>3.7122841329793199</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="0">
-        <v>263.47699999999998</v>
+        <v>263.53699999999998</v>
       </c>
       <c r="B529" s="0">
-        <v>1.3552300000000004</v>
+        <v>1.3558300000000003</v>
       </c>
       <c r="C529" s="0">
-        <v>3.5143959755659355</v>
+        <v>3.4830522418757726</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="0">
-        <v>263.97699999999998</v>
+        <v>264.03699999999998</v>
       </c>
       <c r="B530" s="0">
-        <v>1.3502300000000003</v>
+        <v>1.3508300000000002</v>
       </c>
       <c r="C530" s="0">
-        <v>3.2628532758414179</v>
+        <v>3.2299753187988487</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="0">
-        <v>264.47699999999998</v>
+        <v>264.53699999999998</v>
       </c>
       <c r="B531" s="0">
-        <v>1.3452300000000004</v>
+        <v>1.3458300000000003</v>
       </c>
       <c r="C531" s="0">
-        <v>3.0264516309338436</v>
+        <v>3.0014221607269738</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="0">
-        <v>264.97699999999998</v>
+        <v>265.03699999999998</v>
       </c>
       <c r="B532" s="0">
-        <v>1.3402300000000003</v>
+        <v>1.3408300000000002</v>
       </c>
       <c r="C532" s="0">
-        <v>2.7880363316964103</v>
+        <v>2.7592917243184631</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="0">
-        <v>265.47699999999998</v>
+        <v>265.53699999999998</v>
       </c>
       <c r="B533" s="0">
-        <v>1.3352300000000004</v>
+        <v>1.3358300000000003</v>
       </c>
       <c r="C533" s="0">
-        <v>2.5441977881582618</v>
+        <v>2.5166104483751548</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="0">
-        <v>265.97699999999998</v>
+        <v>266.03699999999998</v>
       </c>
       <c r="B534" s="0">
-        <v>1.3302300000000002</v>
+        <v>1.3308300000000002</v>
       </c>
       <c r="C534" s="0">
-        <v>2.3033310176867485</v>
+        <v>2.2743539882577322</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="0">
-        <v>266.47699999999998</v>
+        <v>266.53699999999998</v>
       </c>
       <c r="B535" s="0">
-        <v>1.3252300000000004</v>
+        <v>1.3258300000000003</v>
       </c>
       <c r="C535" s="0">
-        <v>2.0552280113386825</v>
+        <v>2.0289559103997612</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="0">
-        <v>266.97699999999998</v>
+        <v>267.03699999999998</v>
       </c>
       <c r="B536" s="0">
-        <v>1.3202300000000002</v>
+        <v>1.3208300000000002</v>
       </c>
       <c r="C536" s="0">
-        <v>1.8105631812193075</v>
+        <v>1.7774335290378072</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="0">
-        <v>267.47699999999998</v>
+        <v>267.53699999999998</v>
       </c>
       <c r="B537" s="0">
-        <v>1.3152300000000003</v>
+        <v>1.3158300000000003</v>
       </c>
       <c r="C537" s="0">
-        <v>1.5603936599193513</v>
+        <v>1.5281399349313789</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="0">
-        <v>267.97699999999998</v>
+        <v>268.03699999999998</v>
       </c>
       <c r="B538" s="0">
-        <v>1.3102300000000002</v>
+        <v>1.3108300000000002</v>
       </c>
       <c r="C538" s="0">
-        <v>1.3033793268654925</v>
+        <v>1.2743655809431214</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="0">
-        <v>268.47699999999998</v>
+        <v>268.53699999999998</v>
       </c>
       <c r="B539" s="0">
-        <v>1.3052300000000003</v>
+        <v>1.3058300000000003</v>
       </c>
       <c r="C539" s="0">
-        <v>1.0570535393460292</v>
+        <v>1.0263150218765194</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="0">
-        <v>268.97699999999998</v>
+        <v>269.03699999999998</v>
       </c>
       <c r="B540" s="0">
-        <v>1.3002300000000002</v>
+        <v>1.3008300000000002</v>
       </c>
       <c r="C540" s="0">
-        <v>0.79832506887052324</v>
+        <v>0.76643394039115975</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="0">
-        <v>269.47699999999998</v>
+        <v>269.53699999999998</v>
       </c>
       <c r="B541" s="0">
-        <v>1.2952300000000003</v>
+        <v>1.2958300000000003</v>
       </c>
       <c r="C541" s="0">
-        <v>0.54752169920549354</v>
-      </c>
-    </row>
-    <row r="542">
-      <c r="A542" s="0">
-        <v>269.97699999999998</v>
-      </c>
-      <c r="B542" s="0">
-        <v>1.2902300000000004</v>
-      </c>
-      <c r="C542" s="0">
-        <v>0.28170591288377844</v>
-      </c>
-    </row>
-    <row r="543">
-      <c r="A543" s="0">
-        <v>270.47699999999998</v>
-      </c>
-      <c r="B543" s="0">
-        <v>1.2852300000000003</v>
-      </c>
-      <c r="C543" s="0">
-        <v>0.051954302219519598</v>
+        <v>0.52308092976542175</v>
       </c>
     </row>
   </sheetData>
